--- a/data/sample_clean_a_agile_only.xlsx
+++ b/data/sample_clean_a_agile_only.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7e8a9698d8ff09e/ddata/UK/UKStudy/BSCHonsComputingTopup/2025-6CC552-ResearchProject/dataset/ISBSG/Ready4MLTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10486B311D5E065BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA1F38EA-91D8-425D-8496-5A034FB7259A}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC10486B311D5E065BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ADA9D80-EF9B-4474-B1A0-8D8D43E1F94A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10" yWindow="6830" windowWidth="25620" windowHeight="6860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CM$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="198">
   <si>
     <t>ISBSG Project ID</t>
   </si>
@@ -633,718 +633,13 @@
   </si>
   <si>
     <t>Student &amp; Tests Management;</t>
-  </si>
-  <si>
-    <t>Process_PMF_Development Techniques</t>
-  </si>
-  <si>
-    <t>Process_PMF_JAD Method Used</t>
-  </si>
-  <si>
-    <t>Process_PMF_Agile Method Used</t>
-  </si>
-  <si>
-    <t>Process_PMF_Sprints / iterations</t>
-  </si>
-  <si>
-    <t>Process_PMF_Sprints / iterations length</t>
-  </si>
-  <si>
-    <t>Process_PMF_Sprints / iterations size</t>
-  </si>
-  <si>
-    <t>Process_PMF_Planning Documents</t>
-  </si>
-  <si>
-    <t>Process_PMF_Specification Documents</t>
-  </si>
-  <si>
-    <t>Process_PMF_Specification Techniques</t>
-  </si>
-  <si>
-    <t>Process_PMF_Design Documents</t>
-  </si>
-  <si>
-    <t>Process_PMF_Design Techniques</t>
-  </si>
-  <si>
-    <t>Process_PMF_Build Products</t>
-  </si>
-  <si>
-    <t>Process_PMF_Build Activity</t>
-  </si>
-  <si>
-    <t>Process_PMF_Test Documents</t>
-  </si>
-  <si>
-    <t>Process_PMF_Test Activity</t>
-  </si>
-  <si>
-    <t>Process_PMF_Implement Documents</t>
-  </si>
-  <si>
-    <t>Process_PMF_Implement Activity</t>
-  </si>
-  <si>
-    <t>Process_PMF_Functional Sizing Technique</t>
-  </si>
-  <si>
-    <t>Process_PMF_FP Standard</t>
-  </si>
-  <si>
-    <t>Process_PMF_FP Standards All</t>
-  </si>
-  <si>
-    <t>Process_PMF_Reference Table Approach</t>
-  </si>
-  <si>
-    <t>Tech_TF_Upper_CASE_Used</t>
-  </si>
-  <si>
-    <t>Tech_TF_Lower_CASE_Used_(with_code_gen)</t>
-  </si>
-  <si>
-    <t>Tech_TF_Lower_CASE_Used_(no_code_gen)</t>
-  </si>
-  <si>
-    <t>Tech_TF_Integrated_CASE_Used</t>
-  </si>
-  <si>
-    <t>Tech_TF_Other_CASE_tools?</t>
-  </si>
-  <si>
-    <t>Tech_TF_Other_CASE_tool_names</t>
-  </si>
-  <si>
-    <t>Tech_TF_Staged_development?</t>
-  </si>
-  <si>
-    <t>Tech_TF_Project_management_tools?</t>
-  </si>
-  <si>
-    <t>Tech_TF_Project_management_tool_name</t>
-  </si>
-  <si>
-    <t>Tech_TF_Debugging_tools?</t>
-  </si>
-  <si>
-    <t>Tech_TF_Debugging_tool_name</t>
-  </si>
-  <si>
-    <t>Tech_TF_Testing_tools?</t>
-  </si>
-  <si>
-    <t>Tech_TF_Testing_tool_name</t>
-  </si>
-  <si>
-    <t>Tech_TF_Performance_monitoring_tools?</t>
-  </si>
-  <si>
-    <t>Tech_TF_Performance_tool_name</t>
-  </si>
-  <si>
-    <t>Tech_TF_Other_tools?</t>
-  </si>
-  <si>
-    <t>Tech_TF_Other_tools_name</t>
-  </si>
-  <si>
-    <t>Manual supported by a tool;</t>
-  </si>
-  <si>
-    <t>COSMIC 3.0</t>
-  </si>
-  <si>
-    <t>COSMIC 3.0;</t>
-  </si>
-  <si>
-    <t>WinDbg;</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>FP;</t>
-  </si>
-  <si>
-    <t>Budget;Business Case;Project Schedule;Resource Plan;Risk Analysis;Project Mgt Plan;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;Functional Specification;</t>
-  </si>
-  <si>
-    <t>System Architecture Spec;Technical Specification;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;</t>
-  </si>
-  <si>
-    <t>Unit Testing;Software Integration;System Integration;</t>
-  </si>
-  <si>
-    <t>Test Plans/Designs;Test Scripts/Harnesses;Test Data;Incident/Defect Lists;</t>
-  </si>
-  <si>
-    <t>Manual Testing;Create &amp; Run Automated Testing;Performance, Stress or Load Testing;Regression Testing;</t>
-  </si>
-  <si>
-    <t>Release Description/Notes;Incident/Defect Lists;End user Manual or Help;Operation/Admin. Manual;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;Install Software for Users;</t>
-  </si>
-  <si>
-    <t>IFPUG 4.2</t>
-  </si>
-  <si>
-    <t>IFPUG 4.2;</t>
-  </si>
-  <si>
-    <t>IFPUG rules;</t>
-  </si>
-  <si>
-    <t>Quality Center;</t>
-  </si>
-  <si>
-    <t>COSMIC 3.0.1</t>
-  </si>
-  <si>
-    <t>COSMIC 3.0.1;</t>
-  </si>
-  <si>
-    <t>Resource Plan;Risk Analysis;Project Mgt Plan;Vision/Objectives;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;Functional Specification;User Manual;Data Flow Model;Use Case Model;</t>
-  </si>
-  <si>
-    <t>Timeboxing;</t>
-  </si>
-  <si>
-    <t>Technical Specification;Component Designs;Software Interface Designs;</t>
-  </si>
-  <si>
-    <t>Design Review/Inspection;Useability Review/Testing;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Information/Text Content;Unit Test Plans/Designs;</t>
-  </si>
-  <si>
-    <t>Unit Testing;System Integration;</t>
-  </si>
-  <si>
-    <t>Test Plans/Designs;Test Data;Incident/Defect Lists;</t>
-  </si>
-  <si>
-    <t>Manual Testing;Performance, Stress or Load Testing;</t>
-  </si>
-  <si>
-    <t>7 to 14</t>
-  </si>
-  <si>
-    <t>Automated by a tool;</t>
-  </si>
-  <si>
-    <t>IFPUG 4.3</t>
-  </si>
-  <si>
-    <t>IFPUG 4.3;</t>
-  </si>
-  <si>
-    <t>Object Oriented Analysis;Object Oriented Design;</t>
-  </si>
-  <si>
-    <t>Budget;Business Case;Feasibility Study;Project Schedule;Proposal/Tender;Resource Plan;Vision/Objectives;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;User Interface Prototype;Logical Data/ER Model;State Transition Model;</t>
-  </si>
-  <si>
-    <t>System Architecture Spec;User Interface Prototype;Technical Prototypes;Database/Data File Design;Detailed Design Documents;</t>
-  </si>
-  <si>
-    <t>Unified Modelling Language (UML);Design Review/Inspection;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Graphics Items/Images;</t>
-  </si>
-  <si>
-    <t>Unit Testing;Software Integration;</t>
-  </si>
-  <si>
-    <t>Test Plans/Designs;Test Scripts/Harnesses;Test Data;</t>
-  </si>
-  <si>
-    <t>Manual Testing;</t>
-  </si>
-  <si>
-    <t>Installation Procedures;End user Manual or Help;Operation/Admin. Manual;End user Training Material;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;Install Software for Users;Acceptance/Beta Testing;Provide User Training;Provide User Support;Data Establishment;</t>
-  </si>
-  <si>
-    <t>IFPUG 4.2.1</t>
-  </si>
-  <si>
-    <t>IFPUG 4.2.1;</t>
-  </si>
-  <si>
-    <t>Counted each table as a logical file;</t>
-  </si>
-  <si>
-    <t>Jira;</t>
-  </si>
-  <si>
-    <t>OpenUP;</t>
-  </si>
-  <si>
-    <t>Budget;Project Schedule;Resource Plan;Project Mgt Plan;Software Development Plan;The planning was iterative and jira was use.;</t>
-  </si>
-  <si>
-    <t>User Manual;User Interface Prototype;Graphical Look &amp; Feel;Logical Data/ER Model;Use Case Model;State Transition Model;Storyboards;External/System Interface Specifications;</t>
-  </si>
-  <si>
-    <t>Specification Review;</t>
-  </si>
-  <si>
-    <t>User Interface Prototype;Graphical Look &amp; Feel;Component Designs;Database/Data File Design;Software Interface Designs;Module/Unit/Class Designs;Developper Guideline;</t>
-  </si>
-  <si>
-    <t>Unified Modelling Language (UML);Design Review/Inspection;Useability Review/Testing;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Graphics Items/Images;Information/Text Content;Unit Test Plans/Designs;Deployment script;</t>
-  </si>
-  <si>
-    <t>Unit Testing;Code Review/Inspection;Software Integration;System Integration;</t>
-  </si>
-  <si>
-    <t>Test Scripts/Harnesses;Test Data;Integration testing;</t>
-  </si>
-  <si>
-    <t>Installation Procedures;Release Description/Notes;Incident/Defect Lists;End user Manual or Help;</t>
-  </si>
-  <si>
-    <t>Acceptance/Beta Testing;Provide User Support;</t>
-  </si>
-  <si>
-    <t>Enterprise Architect;</t>
-  </si>
-  <si>
-    <t>Visual Studio 2010;</t>
-  </si>
-  <si>
-    <t>dotTest;Nunit;</t>
-  </si>
-  <si>
-    <t>Project Schedule;Quality Plan;Risk Analysis;Project Mgt Plan;Software Development Plan;Vision/Objectives;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;Functional Specification;User Manual;User Interface Prototype;Use Case Model;Storyboards;</t>
-  </si>
-  <si>
-    <t>System Architecture Spec;Software Interface Designs;Detailed Design Documents;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Graphics Items/Images;Unit Test Plans/Designs;</t>
-  </si>
-  <si>
-    <t>Manual Testing;Create &amp; Run Automated Testing;</t>
-  </si>
-  <si>
-    <t>End user Manual or Help;</t>
-  </si>
-  <si>
-    <t>Wholly manual;</t>
-  </si>
-  <si>
-    <t>COSMIC 2</t>
-  </si>
-  <si>
-    <t>COSMIC 2;</t>
-  </si>
-  <si>
-    <t>Eclipse;</t>
-  </si>
-  <si>
-    <t>MS Excel;Eclipse, Junit;</t>
-  </si>
-  <si>
-    <t>Business Area Modelling;Data Modelling;Object Oriented Analysis;Object Oriented Design;</t>
-  </si>
-  <si>
-    <t>Budget;Business Case;Project Schedule;Quality Plan;Resource Plan;Risk Analysis;Project Mgt Plan;Software Development Plan;</t>
-  </si>
-  <si>
-    <t>System Concept Document;Requirements Specification;Functional Specification;Use Case Model;External/System Interface Specifications;</t>
-  </si>
-  <si>
-    <t>System Architecture Spec;Technical Specification;Graphical Look &amp; Feel;Component Designs;Database/Data File Design;Software Interface Designs;Detailed Design Documents;</t>
-  </si>
-  <si>
-    <t>Unit Testing;Code Review/Inspection;</t>
-  </si>
-  <si>
-    <t>Manual Testing;Performance, Stress or Load Testing;Regression Testing;</t>
-  </si>
-  <si>
-    <t>Installation Procedures;Release Description/Notes;Incident/Defect Lists;End user Manual or Help;Operation/Admin. Manual;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;Data Establishment;</t>
-  </si>
-  <si>
-    <t>None;</t>
-  </si>
-  <si>
-    <t>User Interface Prototype;</t>
-  </si>
-  <si>
-    <t>Unit Testing;Code Review/Inspection;Software Integration;</t>
-  </si>
-  <si>
-    <t>End user Training Material;</t>
-  </si>
-  <si>
-    <t>Visual C# 2008 Express;</t>
-  </si>
-  <si>
-    <t>Business Case;Proposal/Tender;Software Development Plan;</t>
-  </si>
-  <si>
-    <t>Graphical Look &amp; Feel;</t>
-  </si>
-  <si>
-    <t>User Interface Prototype;Graphical Look &amp; Feel;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Graphics Items/Images;Information/Text Content;Integration Scripts/Checklist;</t>
-  </si>
-  <si>
-    <t>Code Review/Inspection;</t>
-  </si>
-  <si>
-    <t>Incident/Defect Lists;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;Provide User Training;Provide User Support;</t>
-  </si>
-  <si>
-    <t>Builder (Borland);</t>
-  </si>
-  <si>
-    <t>Prototyping;Object Oriented Design;</t>
-  </si>
-  <si>
-    <t>Budget;Project Schedule;Resource Plan;Risk Analysis;Project Mgt Plan;Software Development Plan;Vision/Objectives;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;</t>
-  </si>
-  <si>
-    <t>Technical Specification;User Interface Prototype;Graphical Look &amp; Feel;Software Interface Designs;Module/Unit/Class Designs;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Graphics Items/Images;Information/Text Content;Unit Test Plans/Designs;Integration Scripts/Checklist;</t>
-  </si>
-  <si>
-    <t>Test Plans/Designs;Test Data;</t>
-  </si>
-  <si>
-    <t>Installation Procedures;Release Description/Notes;Incident/Defect Lists;Operation/Admin. Manual;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;</t>
-  </si>
-  <si>
-    <t>Visual Studio 2008;</t>
-  </si>
-  <si>
-    <t>MS Word;Nunit;</t>
-  </si>
-  <si>
-    <t>Data Modelling;Prototyping;Object Oriented Analysis;</t>
-  </si>
-  <si>
-    <t>Budget;Resource Plan;Risk Analysis;Software Development Plan;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;Functional Specification;User Interface Prototype;Logical Data/ER Model;</t>
-  </si>
-  <si>
-    <t>Technical Specification;User Interface Prototype;Graphical Look &amp; Feel;Database/Data File Design;</t>
-  </si>
-  <si>
-    <t>Design Review/Inspection;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Integration Scripts/Checklist;</t>
-  </si>
-  <si>
-    <t>Test Data;Incident/Defect Lists;</t>
-  </si>
-  <si>
-    <t>Regression Testing;</t>
-  </si>
-  <si>
-    <t>Installation Procedures;Release Description/Notes;Operation/Admin. Manual;Migration/post-installation manual, planning;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;Acceptance/Beta Testing;Provide User Support;</t>
-  </si>
-  <si>
-    <t>COSMIC 2.2</t>
-  </si>
-  <si>
-    <t>COSMIC 2.2;</t>
-  </si>
-  <si>
-    <t>Entreprise Architect (EA);</t>
-  </si>
-  <si>
-    <t>Visual Studio 2005 (VS);</t>
-  </si>
-  <si>
-    <t>Resource Plan;Risk Analysis;Project Mgt Plan;Software Development Plan;Vision/Objectives;</t>
-  </si>
-  <si>
-    <t>User Manual;Data Flow Model;Event Model;Use Case Model;External/System Interface Specifications;</t>
-  </si>
-  <si>
-    <t>Release Description/Notes;Incident/Defect Lists;End user Manual or Help;Operation/Admin. Manual;End user Training Material;</t>
-  </si>
-  <si>
-    <t>MS Word;</t>
-  </si>
-  <si>
-    <t>Data Modelling;Object Oriented Design;</t>
-  </si>
-  <si>
-    <t>Unified Modelling Language (UML);</t>
-  </si>
-  <si>
-    <t>Unit Testing;</t>
-  </si>
-  <si>
-    <t>Resharper;</t>
-  </si>
-  <si>
-    <t>MS Excel;Eclipse, JUnit, XMLUnit;</t>
-  </si>
-  <si>
-    <t>Software Development Plan;The planning was iterative and JIRA was used.;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;Graphical Look &amp; Feel;Use Case Model;</t>
-  </si>
-  <si>
-    <t>System Architecture Spec;Component Designs;Detailed Design Documents;Module/Unit/Class Designs;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Graphics Items/Images;Information/Text Content;Deployment documentation;</t>
-  </si>
-  <si>
-    <t>Code Review/Inspection;Software Integration;System Integration;</t>
-  </si>
-  <si>
-    <t>Release Description/Notes;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;Install Software for Users;Acceptance/Beta Testing;Provide User Training;Provide User Support;</t>
-  </si>
-  <si>
-    <t>Budget;Project Schedule;Quality Plan;Resource Plan;Risk Analysis;Software Development Plan;</t>
-  </si>
-  <si>
-    <t>Graphical Look &amp; Feel;Logical Data/ER Model;Data Flow Model;Event Model;Use Case Model;State Transition Model;</t>
-  </si>
-  <si>
-    <t>Timeboxing;Specification Review;</t>
-  </si>
-  <si>
-    <t>Graphical Look &amp; Feel;Component Designs;Database/Data File Design;Module/Unit/Class Designs;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Graphics Items/Images;Information/Text Content;Unit Test Plans/Designs;Integration Scripts/Checklist;</t>
-  </si>
-  <si>
-    <t>Release Description/Notes;Installation Software Utility;</t>
-  </si>
-  <si>
-    <t>Combined all tables into a single file;</t>
-  </si>
-  <si>
-    <t>Visual Studio 2005;</t>
-  </si>
-  <si>
-    <t>FX Cop;Nunit;</t>
-  </si>
-  <si>
-    <t>MS Excel;Eclipse, Junit,;</t>
-  </si>
-  <si>
-    <t>Resharper;MS Test;</t>
-  </si>
-  <si>
-    <t>Budget;Project Schedule;Resource Plan;Risk Analysis;Project Mgt Plan;Software Development Plan;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;Functional Specification;System Analysis Report;User Manual;Stakeholder analysis;Context diagram;Master Data;</t>
-  </si>
-  <si>
-    <t>System Architecture Spec;Technical Specification;User Interface Prototype;Graphical Look &amp; Feel;Technical Prototypes;Module/Unit/Class Designs;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Unit Test Plans/Designs;</t>
-  </si>
-  <si>
-    <t>End user Manual or Help;End user Training Material;</t>
-  </si>
-  <si>
-    <t>Acceptance/Beta Testing;Provide User Training;Provide User Support;</t>
-  </si>
-  <si>
-    <t>SAP R/3 and BI;</t>
-  </si>
-  <si>
-    <t>Data Modelling;Prototyping;Object Oriented Analysis;Object Oriented Design;</t>
-  </si>
-  <si>
-    <t>Budget;Project Schedule;Proposal/Tender;Quality Plan;Resource Plan;Risk Analysis;Software Development Plan;Vision/Objectives;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;Functional Specification;User Manual;User Interface Prototype;Logical Data/ER Model;Use Case Model;External/System Interface Specifications;</t>
-  </si>
-  <si>
-    <t>Joint Application Development (JAD);Specification Review;</t>
-  </si>
-  <si>
-    <t>System Architecture Spec;User Interface Prototype;Technical Prototypes;Component Designs;Database/Data File Design;Software Interface Designs;Module/Unit/Class Designs;</t>
-  </si>
-  <si>
-    <t>Create &amp; Run Automated Testing;Performance, Stress or Load Testing;Regression Testing;</t>
-  </si>
-  <si>
-    <t>Installation Procedures;Release Description/Notes;Installation Software Utility;Incident/Defect Lists;End user Manual or Help;Operation/Admin. Manual;</t>
-  </si>
-  <si>
-    <t>MagicDraw UML;</t>
-  </si>
-  <si>
-    <t>PMD, LuntBuild;MS Excel;JUnit, QFTest, Clover;</t>
-  </si>
-  <si>
-    <t>OptimiseIt, ServerTrace;Inhouse developed;</t>
-  </si>
-  <si>
-    <t>Data Modelling;Process Modelling;Prototyping;</t>
-  </si>
-  <si>
-    <t>Budget;Project Schedule;Quality Plan;Resource Plan;Risk Analysis;Project Mgt Plan;Software Development Plan;</t>
-  </si>
-  <si>
-    <t>Requirements Specification;Data Flow Model;Use Case Model;</t>
-  </si>
-  <si>
-    <t>Graphical Look &amp; Feel;Database/Data File Design;Software Interface Designs;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Graphics Items/Images;Unit Test Plans/Designs;Integration Scripts/Checklist;</t>
-  </si>
-  <si>
-    <t>MS Excel;Eclipse, JUnit, HttpUnit;</t>
-  </si>
-  <si>
-    <t>Business Case;Feasibility Study;Project Mgt Plan;Software Development Plan;Technical documentation;</t>
-  </si>
-  <si>
-    <t>System Concept Document;Functional Specification;User Interface Prototype;Logical Data/ER Model;External/System Interface Specifications;Installation Manual;Configuration Manual;</t>
-  </si>
-  <si>
-    <t>User Interface Prototype;Technical Prototypes;Database/Data File Design;Software Interface Designs;Detailed Design Documents;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Integration Scripts/Checklist;</t>
-  </si>
-  <si>
-    <t>Test Scripts/Harnesses;Test Data;Incident/Defect Lists;</t>
-  </si>
-  <si>
-    <t>Manual Testing;Regression Testing;Integration Testing;</t>
-  </si>
-  <si>
-    <t>Installation Procedures;Operation/Admin. Manual;Data Establishment Process;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;Install Software for Users;Data Establishment;</t>
-  </si>
-  <si>
-    <t>COSMIC 3.01</t>
-  </si>
-  <si>
-    <t>COSMIC 3.01;NESMA 2.2;</t>
-  </si>
-  <si>
-    <t>NESMA 2.2</t>
-  </si>
-  <si>
-    <t>Activity Modelling;Business Area Modelling;Data Modelling;Entity Relationship Modelling;Event Modelling;Functional Decomposition;Object Oriented;Pair Testing;Process Modelling;Prototyping;Unified Modelling Language (UML);</t>
-  </si>
-  <si>
-    <t>Budget;Business Case;Feasibility Study;Project Schedule;Proposal/Tender;Quality Plan;Resource Plan;Risk Analysis;Project Mgt Plan;Software Development Plan;Vision/Objectives;Marketing Plan;</t>
-  </si>
-  <si>
-    <t>System Concept Document;Project Treatment;Requirements Specification;Functional Specification;System Analysis Report;User Interface Prototype;User Manual;Graphical Look &amp; Feel;Logical Data/ER Model;Data Flow Model;Event Model;Use Case Model;State Transiti</t>
-  </si>
-  <si>
-    <t>Specification Review;Timeboxing;</t>
-  </si>
-  <si>
-    <t>System Architecture Spec;Technical Specification;User Interface Prototype;Graphical Look &amp; Feel;Technical Prototypes;Component Designs;Database/Data File Design;Software Interface Designs;Detailed Design Documents;Module/Unit/Class Designs;</t>
-  </si>
-  <si>
-    <t>Design Review/Inspection;Structured Design;Unified Modelling Language (UML);Useability Review/Testing;Human Centered Design;</t>
-  </si>
-  <si>
-    <t>Source Code/Objects;Database Objects;Graphics Items/Images;Information/Text Content;Unit Test Plans/Designs;Integration Scripts/Checklist;User Scenarios diagrams;</t>
-  </si>
-  <si>
-    <t>Unit Testing;Code Review/Inspection;Software Integration;System Integration;Active Design Documentation;</t>
-  </si>
-  <si>
-    <t>Manual Testing;Create &amp; Run Automated Testing;Regression Testing;Integration Testing;</t>
-  </si>
-  <si>
-    <t>Installation Procedures;Release Description/Notes;Installation Software Utility;Incident/Defect Lists;Operation/Admin. Manual;End user Training Material;Data Establishment Process;</t>
-  </si>
-  <si>
-    <t>Prepare for Delivery/Installation;Install Software for Users;Acceptance/Beta Testing;Provide User Support;Data Establishment;</t>
-  </si>
-  <si>
-    <t>IMES FPC feature;</t>
-  </si>
-  <si>
-    <t>IFPUG 4.0</t>
-  </si>
-  <si>
-    <t>IFPUG 4.0;</t>
-  </si>
-  <si>
-    <t>IMES FPC calculated;</t>
-  </si>
-  <si>
-    <t>IMES;</t>
-  </si>
-  <si>
-    <t>PICT;Message Sequence Chart;MS Excel;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1354,11 +649,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="MS Sans Serif"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="MS Sans Serif"/>
     </font>
   </fonts>
@@ -1673,15 +963,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CM79"/>
+  <dimension ref="A1:BA79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:BB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:91" s="1" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:53" s="1" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1764,199 +1054,85 @@
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>215</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>218</v>
+        <v>46</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CM1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10279</v>
       </c>
@@ -2029,44 +1205,20 @@
       <c r="AA2">
         <v>6</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AB2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>64</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>15</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF2">
+      <c r="AK2">
         <v>2</v>
       </c>
-      <c r="BP2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10317</v>
       </c>
@@ -2130,32 +1282,23 @@
       <c r="AA3">
         <v>3</v>
       </c>
-      <c r="AD3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>241</v>
+      <c r="AF3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>81500</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>73</v>
       </c>
       <c r="BA3" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>81500</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10572</v>
       </c>
@@ -2219,32 +1362,23 @@
       <c r="AA4">
         <v>3</v>
       </c>
-      <c r="AD4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>241</v>
+      <c r="AF4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>69850</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>73</v>
       </c>
       <c r="BA4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>69850</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11278</v>
       </c>
@@ -2323,122 +1457,56 @@
       <c r="AA5">
         <v>16</v>
       </c>
+      <c r="AB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>64</v>
+      </c>
       <c r="AD5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>64</v>
       </c>
-      <c r="AE5">
+      <c r="AK5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>3</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>5</v>
       </c>
-      <c r="AF5">
-        <v>19</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>248</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF5">
-        <v>2</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>254</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY5">
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>5</v>
+      </c>
+      <c r="AU5">
+        <v>4</v>
+      </c>
+      <c r="AV5">
         <v>3</v>
       </c>
-      <c r="BZ5">
-        <v>1</v>
-      </c>
-      <c r="CA5">
-        <v>5</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>5</v>
-      </c>
-      <c r="CG5">
-        <v>4</v>
-      </c>
-      <c r="CH5">
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>3</v>
       </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>3</v>
-      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>11497</v>
       </c>
@@ -2511,44 +1579,20 @@
       <c r="AA6">
         <v>6</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AB6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>64</v>
       </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>15</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF6">
+      <c r="AK6">
         <v>2</v>
       </c>
-      <c r="BP6" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11738</v>
       </c>
@@ -2621,44 +1665,20 @@
       <c r="AA7">
         <v>6</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AB7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>64</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>20</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF7">
+      <c r="AK7">
         <v>2</v>
       </c>
-      <c r="BP7" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11801</v>
       </c>
@@ -2731,122 +1751,59 @@
       <c r="AA8">
         <v>18</v>
       </c>
+      <c r="AB8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>64</v>
+      </c>
       <c r="AD8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>64</v>
       </c>
-      <c r="AE8">
+      <c r="AK8">
+        <v>3</v>
+      </c>
+      <c r="AM8">
+        <v>8</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>2</v>
       </c>
-      <c r="AF8">
-        <v>14</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>258</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>265</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>249</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>94</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF8">
-        <v>3</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>254</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>64</v>
-      </c>
-      <c r="BY8">
-        <v>8</v>
-      </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CE8">
+      <c r="AT8">
         <v>2</v>
       </c>
-      <c r="CF8">
-        <v>2</v>
-      </c>
-      <c r="CG8">
+      <c r="AU8">
         <v>4</v>
       </c>
-      <c r="CH8">
+      <c r="AV8">
         <v>1</v>
       </c>
-      <c r="CI8">
+      <c r="AW8">
         <v>1</v>
       </c>
-      <c r="CJ8">
+      <c r="AX8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12664</v>
       </c>
@@ -2910,32 +1867,23 @@
       <c r="AA9">
         <v>3</v>
       </c>
-      <c r="AD9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>241</v>
+      <c r="AF9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>61435</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>73</v>
       </c>
       <c r="BA9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>61435</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13026</v>
       </c>
@@ -3008,44 +1956,20 @@
       <c r="AA10">
         <v>6</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AB10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>64</v>
       </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>25</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF10">
+      <c r="AK10">
         <v>2</v>
       </c>
-      <c r="BP10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>13384</v>
       </c>
@@ -3118,44 +2042,20 @@
       <c r="AA11">
         <v>6</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AB11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>64</v>
       </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>20</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF11">
+      <c r="AK11">
         <v>2</v>
       </c>
-      <c r="BP11" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>13695</v>
       </c>
@@ -3228,44 +2128,20 @@
       <c r="AA12">
         <v>6</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AB12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>64</v>
       </c>
-      <c r="AE12">
-        <v>1</v>
-      </c>
-      <c r="AF12">
-        <v>15</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF12">
+      <c r="AK12">
         <v>2</v>
       </c>
-      <c r="BP12" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13784</v>
       </c>
@@ -3338,44 +2214,20 @@
       <c r="AA13">
         <v>6</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AB13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>64</v>
       </c>
-      <c r="AE13">
-        <v>1</v>
-      </c>
-      <c r="AF13">
-        <v>25</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF13">
+      <c r="AK13">
         <v>2</v>
       </c>
-      <c r="BP13" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14319</v>
       </c>
@@ -3439,35 +2291,20 @@
       <c r="AA14">
         <v>5</v>
       </c>
-      <c r="AD14" t="s">
-        <v>64</v>
+      <c r="AB14" t="s">
+        <v>92</v>
       </c>
       <c r="AF14" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA14" t="s">
         <v>66</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="AI14" t="s">
         <v>95</v>
       </c>
-      <c r="BF14">
+      <c r="AK14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14325</v>
       </c>
@@ -3541,91 +2378,31 @@
         <v>18</v>
       </c>
       <c r="AB15" t="s">
-        <v>270</v>
+        <v>84</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>64</v>
       </c>
       <c r="AD15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE15">
-        <v>6</v>
-      </c>
-      <c r="AF15">
-        <v>30</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>272</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>276</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>279</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>280</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>281</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>283</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY15" t="s">
         <v>110</v>
       </c>
-      <c r="AZ15" t="s">
+      <c r="AE15" t="s">
         <v>111</v>
       </c>
-      <c r="BA15" t="s">
+      <c r="AF15" t="s">
         <v>66</v>
       </c>
-      <c r="BF15">
+      <c r="AK15">
         <v>2</v>
       </c>
-      <c r="BR15" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>284</v>
-      </c>
-      <c r="CI15">
-        <v>0</v>
-      </c>
-      <c r="CJ15">
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14335</v>
       </c>
@@ -3705,133 +2482,58 @@
         <v>17</v>
       </c>
       <c r="AB16" t="s">
-        <v>285</v>
+        <v>92</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>64</v>
       </c>
       <c r="AD16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>64</v>
       </c>
-      <c r="AE16">
-        <v>15</v>
-      </c>
-      <c r="AF16">
-        <v>10</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>286</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>289</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>291</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>293</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>294</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>295</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>256</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>117</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF16">
+      <c r="AK16">
         <v>7</v>
       </c>
-      <c r="BG16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>297</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>298</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY16">
-        <v>0</v>
-      </c>
-      <c r="BZ16">
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
         <v>1</v>
       </c>
-      <c r="CA16">
+      <c r="AO16">
         <v>2</v>
       </c>
-      <c r="CE16">
+      <c r="AS16">
         <v>1</v>
       </c>
-      <c r="CF16">
+      <c r="AT16">
         <v>2</v>
       </c>
-      <c r="CG16">
-        <v>0</v>
-      </c>
-      <c r="CH16">
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
         <v>3</v>
       </c>
-      <c r="CI16">
+      <c r="AW16">
         <v>1</v>
       </c>
-      <c r="CJ16">
+      <c r="AX16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14345</v>
       </c>
@@ -3905,112 +2607,46 @@
         <v>18</v>
       </c>
       <c r="AB17" t="s">
-        <v>270</v>
+        <v>92</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>64</v>
       </c>
       <c r="AD17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>64</v>
       </c>
-      <c r="AE17">
-        <v>6</v>
-      </c>
-      <c r="AF17">
-        <v>14</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>306</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>123</v>
+      <c r="AK17">
+        <v>4</v>
+      </c>
+      <c r="AS17">
+        <v>4</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>17160</v>
       </c>
       <c r="AZ17" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF17">
-        <v>4</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>309</v>
-      </c>
-      <c r="CE17">
-        <v>4</v>
-      </c>
-      <c r="CI17">
-        <v>0</v>
-      </c>
-      <c r="CJ17">
-        <v>0</v>
-      </c>
-      <c r="CK17">
-        <v>17160</v>
-      </c>
-      <c r="CL17" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>14525</v>
       </c>
@@ -4087,112 +2723,55 @@
         <v>17</v>
       </c>
       <c r="AB18" t="s">
-        <v>310</v>
+        <v>84</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>64</v>
       </c>
       <c r="AD18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>64</v>
       </c>
-      <c r="AE18">
-        <v>3</v>
-      </c>
-      <c r="AF18">
-        <v>21</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>312</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>313</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>314</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>316</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>317</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF18">
+      <c r="AK18">
         <v>2</v>
       </c>
-      <c r="BR18" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>254</v>
-      </c>
-      <c r="BY18">
+      <c r="AM18">
         <v>5</v>
       </c>
-      <c r="BZ18">
+      <c r="AN18">
         <v>5</v>
       </c>
-      <c r="CA18">
+      <c r="AO18">
         <v>16</v>
       </c>
-      <c r="CE18">
+      <c r="AS18">
         <v>2</v>
       </c>
-      <c r="CF18">
-        <v>0</v>
-      </c>
-      <c r="CG18">
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
         <v>24</v>
       </c>
-      <c r="CH18">
+      <c r="AV18">
         <v>10</v>
       </c>
-      <c r="CI18">
+      <c r="AW18">
         <v>2</v>
       </c>
-      <c r="CJ18">
+      <c r="AX18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14535</v>
       </c>
@@ -4269,106 +2848,46 @@
         <v>14</v>
       </c>
       <c r="AB19" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>64</v>
       </c>
-      <c r="AE19">
-        <v>7</v>
-      </c>
-      <c r="AF19">
-        <v>9</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>319</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>318</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>318</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>321</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF19">
+      <c r="AK19">
         <v>2</v>
       </c>
-      <c r="BG19" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>322</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY19">
+      <c r="AM19">
         <v>6</v>
       </c>
-      <c r="BZ19">
-        <v>0</v>
-      </c>
-      <c r="CA19">
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
         <v>1</v>
       </c>
-      <c r="CE19">
+      <c r="AS19">
         <v>1</v>
       </c>
-      <c r="CF19">
+      <c r="AT19">
         <v>3</v>
       </c>
-      <c r="CG19">
+      <c r="AU19">
         <v>3</v>
       </c>
-      <c r="CI19">
+      <c r="AW19">
         <v>1</v>
       </c>
-      <c r="CJ19">
+      <c r="AX19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>14621</v>
       </c>
@@ -4448,112 +2967,52 @@
         <v>15</v>
       </c>
       <c r="AB20" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>64</v>
       </c>
-      <c r="AE20">
-        <v>4</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>323</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>324</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>325</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>327</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>328</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>329</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>256</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF20">
+      <c r="AK20">
         <v>2</v>
       </c>
-      <c r="BG20" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>330</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ20">
+      <c r="AN20">
         <v>2</v>
       </c>
-      <c r="CA20">
+      <c r="AO20">
         <v>1</v>
       </c>
-      <c r="CE20">
+      <c r="AS20">
         <v>1</v>
       </c>
-      <c r="CF20">
+      <c r="AT20">
         <v>1</v>
       </c>
-      <c r="CG20">
+      <c r="AU20">
         <v>1</v>
       </c>
-      <c r="CH20">
+      <c r="AV20">
         <v>20</v>
       </c>
-      <c r="CI20">
-        <v>0</v>
-      </c>
-      <c r="CJ20">
-        <v>0</v>
-      </c>
-      <c r="CK20">
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
         <v>4871</v>
       </c>
-      <c r="CL20" t="s">
+      <c r="AZ20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>14928</v>
       </c>
@@ -4617,32 +3076,23 @@
       <c r="AA21">
         <v>3</v>
       </c>
-      <c r="AD21" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>241</v>
+      <c r="AF21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>49753</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>73</v>
       </c>
       <c r="BA21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF21">
-        <v>0</v>
-      </c>
-      <c r="CK21">
-        <v>49753</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>15011</v>
       </c>
@@ -4706,35 +3156,20 @@
       <c r="AA22">
         <v>5</v>
       </c>
-      <c r="AD22" t="s">
-        <v>64</v>
+      <c r="AB22" t="s">
+        <v>92</v>
       </c>
       <c r="AF22" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA22" t="s">
         <v>66</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="AI22" t="s">
         <v>95</v>
       </c>
-      <c r="BF22">
+      <c r="AK22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15148</v>
       </c>
@@ -4798,32 +3233,23 @@
       <c r="AA23">
         <v>3</v>
       </c>
-      <c r="AD23" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>241</v>
+      <c r="AF23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>55440</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>73</v>
       </c>
       <c r="BA23" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF23">
-        <v>0</v>
-      </c>
-      <c r="CK23">
-        <v>55440</v>
-      </c>
-      <c r="CL23" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>15558</v>
       </c>
@@ -4887,32 +3313,23 @@
       <c r="AA24">
         <v>3</v>
       </c>
-      <c r="AD24" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>241</v>
+      <c r="AF24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>104200</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>73</v>
       </c>
       <c r="BA24" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF24">
-        <v>0</v>
-      </c>
-      <c r="CK24">
-        <v>104200</v>
-      </c>
-      <c r="CL24" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>15723</v>
       </c>
@@ -4985,44 +3402,20 @@
       <c r="AA25">
         <v>6</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AB25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>64</v>
       </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>20</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF25">
+      <c r="AK25">
         <v>2</v>
       </c>
-      <c r="BP25" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="26" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>16039</v>
       </c>
@@ -5102,124 +3495,52 @@
         <v>19</v>
       </c>
       <c r="AB26" t="s">
-        <v>331</v>
-      </c>
-      <c r="AD26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC26" t="s">
         <v>64</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK26">
+        <v>4</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
         <v>2</v>
       </c>
-      <c r="AF26">
-        <v>20</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>332</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>333</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>334</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>335</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>336</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>337</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>338</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>64</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF26">
-        <v>4</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>339</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>340</v>
-      </c>
-      <c r="BY26">
-        <v>0</v>
-      </c>
-      <c r="BZ26">
-        <v>0</v>
-      </c>
-      <c r="CA26">
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
         <v>3</v>
       </c>
-      <c r="CE26">
-        <v>0</v>
-      </c>
-      <c r="CF26">
-        <v>2</v>
-      </c>
-      <c r="CG26">
-        <v>1</v>
-      </c>
-      <c r="CH26">
-        <v>3</v>
-      </c>
-      <c r="CI26">
-        <v>0</v>
-      </c>
-      <c r="CJ26">
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>16563</v>
       </c>
@@ -5292,44 +3613,20 @@
       <c r="AA27">
         <v>6</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AB27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>64</v>
       </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>25</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF27">
+      <c r="AK27">
         <v>2</v>
       </c>
-      <c r="BP27" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="28" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>17137</v>
       </c>
@@ -5393,32 +3690,23 @@
       <c r="AA28">
         <v>3</v>
       </c>
-      <c r="AD28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>241</v>
+      <c r="AF28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>100200</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>73</v>
       </c>
       <c r="BA28" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF28">
-        <v>0</v>
-      </c>
-      <c r="CK28">
-        <v>100200</v>
-      </c>
-      <c r="CL28" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>17275</v>
       </c>
@@ -5482,35 +3770,20 @@
       <c r="AA29">
         <v>5</v>
       </c>
-      <c r="AD29" t="s">
-        <v>64</v>
+      <c r="AB29" t="s">
+        <v>92</v>
       </c>
       <c r="AF29" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS29" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT29" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU29" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA29" t="s">
         <v>66</v>
       </c>
-      <c r="BD29" t="s">
+      <c r="AI29" t="s">
         <v>95</v>
       </c>
-      <c r="BF29">
+      <c r="AK29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>17293</v>
       </c>
@@ -5583,44 +3856,20 @@
       <c r="AA30">
         <v>6</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AB30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>64</v>
       </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>23</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE30" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF30">
+      <c r="AK30">
         <v>2</v>
       </c>
-      <c r="BP30" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ30" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="31" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>17548</v>
       </c>
@@ -5684,35 +3933,20 @@
       <c r="AA31">
         <v>5</v>
       </c>
-      <c r="AD31" t="s">
-        <v>64</v>
+      <c r="AB31" t="s">
+        <v>92</v>
       </c>
       <c r="AF31" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW31" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA31" t="s">
         <v>66</v>
       </c>
-      <c r="BD31" t="s">
+      <c r="AI31" t="s">
         <v>95</v>
       </c>
-      <c r="BF31">
+      <c r="AK31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>18118</v>
       </c>
@@ -5795,130 +4029,61 @@
         <v>16</v>
       </c>
       <c r="AB32" t="s">
-        <v>341</v>
+        <v>84</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>64</v>
       </c>
       <c r="AD32" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>64</v>
       </c>
-      <c r="AH32" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>343</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>344</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>346</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>347</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>348</v>
-      </c>
-      <c r="AQ32" t="s">
-        <v>349</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>350</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>351</v>
-      </c>
-      <c r="AU32" t="s">
-        <v>352</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY32" t="s">
-        <v>145</v>
+      <c r="AK32">
+        <v>5</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>5</v>
+      </c>
+      <c r="AO32">
+        <v>5</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>6</v>
+      </c>
+      <c r="AU32">
+        <v>4</v>
+      </c>
+      <c r="AV32">
+        <v>200</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>1</v>
       </c>
       <c r="AZ32" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="BA32" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE32" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF32">
-        <v>5</v>
-      </c>
-      <c r="BG32" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>353</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ32" t="s">
-        <v>354</v>
-      </c>
-      <c r="BR32" t="s">
         <v>74</v>
       </c>
-      <c r="BT32" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY32">
-        <v>0</v>
-      </c>
-      <c r="BZ32">
-        <v>5</v>
-      </c>
-      <c r="CA32">
-        <v>5</v>
-      </c>
-      <c r="CE32">
-        <v>0</v>
-      </c>
-      <c r="CF32">
-        <v>6</v>
-      </c>
-      <c r="CG32">
-        <v>4</v>
-      </c>
-      <c r="CH32">
-        <v>200</v>
-      </c>
-      <c r="CI32">
-        <v>0</v>
-      </c>
-      <c r="CJ32">
-        <v>1</v>
-      </c>
-      <c r="CL32" t="s">
-        <v>125</v>
-      </c>
-      <c r="CM32" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="33" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>18119</v>
       </c>
@@ -5994,125 +4159,59 @@
       <c r="AA33">
         <v>18</v>
       </c>
+      <c r="AB33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>64</v>
+      </c>
       <c r="AD33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>64</v>
       </c>
-      <c r="AE33">
-        <v>11</v>
-      </c>
-      <c r="AF33">
-        <v>30</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>356</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK33" t="s">
-        <v>260</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>262</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO33" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP33" t="s">
-        <v>248</v>
-      </c>
-      <c r="AQ33" t="s">
-        <v>357</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF33">
+      <c r="AK33">
         <v>3</v>
       </c>
-      <c r="BG33" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR33" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS33" t="s">
-        <v>358</v>
-      </c>
-      <c r="BT33" t="s">
-        <v>64</v>
-      </c>
-      <c r="BY33">
-        <v>0</v>
-      </c>
-      <c r="BZ33">
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
         <v>4</v>
       </c>
-      <c r="CA33">
+      <c r="AO33">
         <v>1</v>
       </c>
-      <c r="CE33">
-        <v>0</v>
-      </c>
-      <c r="CF33">
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
         <v>4</v>
       </c>
-      <c r="CG33">
+      <c r="AU33">
         <v>1</v>
       </c>
-      <c r="CH33">
+      <c r="AV33">
         <v>5</v>
       </c>
-      <c r="CI33">
-        <v>0</v>
-      </c>
-      <c r="CJ33">
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>18328</v>
       </c>
@@ -6185,44 +4284,20 @@
       <c r="AA34">
         <v>6</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AB34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>64</v>
       </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>20</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW34" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF34">
+      <c r="AK34">
         <v>2</v>
       </c>
-      <c r="BP34" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ34" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="35" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>18820</v>
       </c>
@@ -6286,32 +4361,23 @@
       <c r="AA35">
         <v>3</v>
       </c>
-      <c r="AD35" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>241</v>
+      <c r="AF35" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>54230</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>73</v>
       </c>
       <c r="BA35" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF35">
-        <v>0</v>
-      </c>
-      <c r="CK35">
-        <v>54230</v>
-      </c>
-      <c r="CL35" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>19161</v>
       </c>
@@ -6360,23 +4426,20 @@
       <c r="AA36">
         <v>1</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AF36" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>64</v>
       </c>
-      <c r="BA36" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF36">
+      <c r="AK36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>19363</v>
       </c>
@@ -6449,44 +4512,20 @@
       <c r="AA37">
         <v>6</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AB37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>64</v>
       </c>
-      <c r="AE37">
-        <v>1</v>
-      </c>
-      <c r="AF37">
-        <v>25</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE37" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF37">
+      <c r="AK37">
         <v>2</v>
       </c>
-      <c r="BP37" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="38" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>19859</v>
       </c>
@@ -6551,88 +4590,43 @@
         <v>11</v>
       </c>
       <c r="AB38" t="s">
-        <v>359</v>
+        <v>84</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>64</v>
       </c>
       <c r="AD38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>64</v>
       </c>
-      <c r="AE38">
+      <c r="AK38">
+        <v>4</v>
+      </c>
+      <c r="AN38">
         <v>2</v>
       </c>
-      <c r="AF38">
-        <v>15</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>319</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>360</v>
-      </c>
-      <c r="AM38" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>361</v>
-      </c>
-      <c r="AS38" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT38" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW38" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX38" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY38" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA38" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF38">
-        <v>4</v>
-      </c>
-      <c r="BP38" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ38" t="s">
-        <v>297</v>
-      </c>
-      <c r="BR38" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS38" t="s">
-        <v>362</v>
-      </c>
-      <c r="BZ38">
+      <c r="AT38">
         <v>2</v>
       </c>
-      <c r="CF38">
-        <v>2</v>
-      </c>
-      <c r="CH38">
+      <c r="AV38">
         <v>3</v>
       </c>
-      <c r="CI38">
-        <v>0</v>
-      </c>
-      <c r="CJ38">
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>20465</v>
       </c>
@@ -6696,32 +4690,23 @@
       <c r="AA39">
         <v>3</v>
       </c>
-      <c r="AD39" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT39" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>241</v>
+      <c r="AF39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>57035</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>73</v>
       </c>
       <c r="BA39" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF39">
-        <v>0</v>
-      </c>
-      <c r="CK39">
-        <v>57035</v>
-      </c>
-      <c r="CL39" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>21719</v>
       </c>
@@ -6795,112 +4780,46 @@
         <v>18</v>
       </c>
       <c r="AB40" t="s">
-        <v>270</v>
+        <v>92</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>64</v>
       </c>
       <c r="AD40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>64</v>
       </c>
-      <c r="AE40">
-        <v>6</v>
-      </c>
-      <c r="AF40">
-        <v>14</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK40" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM40" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO40" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP40" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR40" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS40" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT40" t="s">
-        <v>306</v>
-      </c>
-      <c r="AU40" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW40" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX40" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY40" t="s">
-        <v>123</v>
+      <c r="AK40">
+        <v>4</v>
+      </c>
+      <c r="AT40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>15281</v>
       </c>
       <c r="AZ40" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA40" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD40" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE40" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF40">
-        <v>4</v>
-      </c>
-      <c r="BP40" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ40" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR40" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS40" t="s">
-        <v>363</v>
-      </c>
-      <c r="CF40">
-        <v>4</v>
-      </c>
-      <c r="CI40">
-        <v>0</v>
-      </c>
-      <c r="CJ40">
-        <v>0</v>
-      </c>
-      <c r="CK40">
-        <v>15281</v>
-      </c>
-      <c r="CL40" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>21837</v>
       </c>
@@ -6964,32 +4883,23 @@
       <c r="AA41">
         <v>3</v>
       </c>
-      <c r="AD41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU41" t="s">
-        <v>241</v>
+      <c r="AF41" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>90300</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>73</v>
       </c>
       <c r="BA41" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF41">
-        <v>0</v>
-      </c>
-      <c r="CK41">
-        <v>90300</v>
-      </c>
-      <c r="CL41" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>22069</v>
       </c>
@@ -7062,44 +4972,20 @@
       <c r="AA42">
         <v>6</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AB42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>64</v>
       </c>
-      <c r="AE42">
-        <v>1</v>
-      </c>
-      <c r="AF42">
-        <v>15</v>
-      </c>
-      <c r="AS42" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU42" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA42" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE42" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF42">
+      <c r="AK42">
         <v>2</v>
       </c>
-      <c r="BP42" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ42" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="43" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>22347</v>
       </c>
@@ -7178,122 +5064,56 @@
       <c r="AA43">
         <v>16</v>
       </c>
+      <c r="AB43" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>64</v>
+      </c>
       <c r="AD43" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ43" t="s">
         <v>64</v>
       </c>
-      <c r="AE43">
-        <v>5</v>
-      </c>
-      <c r="AF43">
-        <v>20</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK43" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO43" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP43" t="s">
-        <v>248</v>
-      </c>
-      <c r="AQ43" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR43" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS43" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT43" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU43" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW43" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX43" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY43" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ43" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA43" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE43" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF43">
+      <c r="AK43">
         <v>2</v>
       </c>
-      <c r="BG43" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK43" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP43" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR43" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS43" t="s">
-        <v>254</v>
-      </c>
-      <c r="BT43" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY43">
-        <v>0</v>
-      </c>
-      <c r="BZ43">
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
         <v>3</v>
       </c>
-      <c r="CA43">
+      <c r="AO43">
         <v>8</v>
       </c>
-      <c r="CE43">
+      <c r="AS43">
         <v>1</v>
       </c>
-      <c r="CF43">
+      <c r="AT43">
         <v>6</v>
       </c>
-      <c r="CG43">
+      <c r="AU43">
         <v>4</v>
       </c>
-      <c r="CH43">
+      <c r="AV43">
         <v>12</v>
       </c>
-      <c r="CI43">
-        <v>0</v>
-      </c>
-      <c r="CJ43">
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>23265</v>
       </c>
@@ -7367,112 +5187,46 @@
         <v>18</v>
       </c>
       <c r="AB44" t="s">
-        <v>270</v>
+        <v>92</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>64</v>
       </c>
       <c r="AD44" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ44" t="s">
         <v>64</v>
       </c>
-      <c r="AE44">
-        <v>6</v>
-      </c>
-      <c r="AF44">
-        <v>14</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM44" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO44" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP44" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ44" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR44" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS44" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT44" t="s">
-        <v>306</v>
-      </c>
-      <c r="AU44" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW44" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX44" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY44" t="s">
-        <v>123</v>
+      <c r="AK44">
+        <v>4</v>
+      </c>
+      <c r="AS44">
+        <v>5</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>14723</v>
       </c>
       <c r="AZ44" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA44" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD44" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE44" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF44">
-        <v>4</v>
-      </c>
-      <c r="BP44" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ44" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR44" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS44" t="s">
-        <v>309</v>
-      </c>
-      <c r="CE44">
-        <v>5</v>
-      </c>
-      <c r="CI44">
-        <v>0</v>
-      </c>
-      <c r="CJ44">
-        <v>0</v>
-      </c>
-      <c r="CK44">
-        <v>14723</v>
-      </c>
-      <c r="CL44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>23319</v>
       </c>
@@ -7552,124 +5306,52 @@
         <v>17</v>
       </c>
       <c r="AB45" t="s">
-        <v>285</v>
+        <v>84</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>64</v>
       </c>
       <c r="AD45" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE45">
-        <v>14</v>
-      </c>
-      <c r="AF45">
+        <v>157</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK45">
+        <v>5</v>
+      </c>
+      <c r="AM45">
         <v>2</v>
       </c>
-      <c r="AH45" t="s">
-        <v>364</v>
-      </c>
-      <c r="AI45" t="s">
-        <v>365</v>
-      </c>
-      <c r="AK45" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>367</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO45" t="s">
-        <v>318</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>369</v>
-      </c>
-      <c r="AR45" t="s">
-        <v>370</v>
-      </c>
-      <c r="AS45" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT45" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU45" t="s">
-        <v>256</v>
-      </c>
-      <c r="AW45" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX45" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY45" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ45" t="s">
-        <v>158</v>
-      </c>
-      <c r="BA45" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF45">
-        <v>5</v>
-      </c>
-      <c r="BG45" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP45" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ45" t="s">
-        <v>339</v>
-      </c>
-      <c r="BR45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT45" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY45">
-        <v>2</v>
-      </c>
-      <c r="BZ45">
-        <v>0</v>
-      </c>
-      <c r="CA45">
-        <v>0</v>
-      </c>
-      <c r="CE45">
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
         <v>1</v>
       </c>
-      <c r="CF45">
-        <v>0</v>
-      </c>
-      <c r="CG45">
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
         <v>1</v>
       </c>
-      <c r="CH45">
+      <c r="AV45">
         <v>25</v>
       </c>
-      <c r="CI45">
-        <v>0</v>
-      </c>
-      <c r="CJ45">
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>23552</v>
       </c>
@@ -7733,35 +5415,20 @@
       <c r="AA46">
         <v>5</v>
       </c>
-      <c r="AD46" t="s">
-        <v>64</v>
+      <c r="AB46" t="s">
+        <v>92</v>
       </c>
       <c r="AF46" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW46" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA46" t="s">
         <v>66</v>
       </c>
-      <c r="BD46" t="s">
+      <c r="AI46" t="s">
         <v>95</v>
       </c>
-      <c r="BF46">
+      <c r="AK46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>23839</v>
       </c>
@@ -7838,121 +5505,58 @@
         <v>15</v>
       </c>
       <c r="AB47" t="s">
-        <v>270</v>
+        <v>84</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>64</v>
       </c>
       <c r="AD47" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ47" t="s">
         <v>64</v>
       </c>
-      <c r="AH47" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI47" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>373</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>376</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS47" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU47" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV47" t="s">
-        <v>377</v>
-      </c>
-      <c r="AW47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY47" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ47" t="s">
-        <v>166</v>
-      </c>
-      <c r="BA47" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD47" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE47" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF47">
+      <c r="AK47">
         <v>6</v>
       </c>
-      <c r="BK47" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL47" t="s">
-        <v>296</v>
-      </c>
-      <c r="BP47" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ47" t="s">
-        <v>378</v>
-      </c>
-      <c r="BR47" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS47" t="s">
-        <v>379</v>
-      </c>
-      <c r="BY47">
+      <c r="AM47">
         <v>1</v>
       </c>
-      <c r="BZ47">
-        <v>0</v>
-      </c>
-      <c r="CA47">
-        <v>0</v>
-      </c>
-      <c r="CE47">
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
         <v>22</v>
       </c>
-      <c r="CF47">
+      <c r="AT47">
         <v>24</v>
       </c>
-      <c r="CG47">
-        <v>0</v>
-      </c>
-      <c r="CH47">
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
         <v>5</v>
       </c>
-      <c r="CI47">
-        <v>0</v>
-      </c>
-      <c r="CJ47">
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>24701</v>
       </c>
@@ -8016,32 +5620,23 @@
       <c r="AA48">
         <v>3</v>
       </c>
-      <c r="AD48" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT48" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU48" t="s">
-        <v>241</v>
+      <c r="AF48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>60115</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>73</v>
       </c>
       <c r="BA48" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="CK48">
-        <v>60115</v>
-      </c>
-      <c r="CL48" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM48" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>25081</v>
       </c>
@@ -8115,112 +5710,46 @@
         <v>18</v>
       </c>
       <c r="AB49" t="s">
-        <v>270</v>
+        <v>92</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>64</v>
       </c>
       <c r="AD49" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>64</v>
       </c>
-      <c r="AE49">
-        <v>6</v>
-      </c>
-      <c r="AF49">
-        <v>14</v>
-      </c>
-      <c r="AH49" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM49" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO49" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP49" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ49" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR49" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS49" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT49" t="s">
-        <v>306</v>
-      </c>
-      <c r="AU49" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW49" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX49" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY49" t="s">
-        <v>123</v>
+      <c r="AK49">
+        <v>4</v>
+      </c>
+      <c r="AT49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>60000</v>
       </c>
       <c r="AZ49" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA49" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD49" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE49" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF49">
-        <v>4</v>
-      </c>
-      <c r="BP49" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ49" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR49" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS49" t="s">
-        <v>380</v>
-      </c>
-      <c r="CF49">
-        <v>5</v>
-      </c>
-      <c r="CI49">
-        <v>0</v>
-      </c>
-      <c r="CJ49">
-        <v>0</v>
-      </c>
-      <c r="CK49">
-        <v>60000</v>
-      </c>
-      <c r="CL49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>25247</v>
       </c>
@@ -8293,44 +5822,20 @@
       <c r="AA50">
         <v>6</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AB50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ50" t="s">
         <v>64</v>
       </c>
-      <c r="AE50">
-        <v>1</v>
-      </c>
-      <c r="AF50">
-        <v>23</v>
-      </c>
-      <c r="AS50" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW50" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA50" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE50" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF50">
+      <c r="AK50">
         <v>2</v>
       </c>
-      <c r="BP50" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ50" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="51" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>25415</v>
       </c>
@@ -8394,35 +5899,20 @@
       <c r="AA51">
         <v>5</v>
       </c>
-      <c r="AD51" t="s">
-        <v>64</v>
+      <c r="AB51" t="s">
+        <v>92</v>
       </c>
       <c r="AF51" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS51" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT51" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU51" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW51" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA51" t="s">
         <v>66</v>
       </c>
-      <c r="BD51" t="s">
+      <c r="AI51" t="s">
         <v>95</v>
       </c>
-      <c r="BF51">
+      <c r="AK51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>25559</v>
       </c>
@@ -8487,91 +5977,46 @@
         <v>11</v>
       </c>
       <c r="AB52" t="s">
-        <v>359</v>
+        <v>84</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>64</v>
       </c>
       <c r="AD52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ52" t="s">
         <v>64</v>
       </c>
-      <c r="AE52">
+      <c r="AK52">
+        <v>4</v>
+      </c>
+      <c r="AM52">
         <v>1</v>
       </c>
-      <c r="AF52">
-        <v>15</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>319</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>360</v>
-      </c>
-      <c r="AM52" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>361</v>
-      </c>
-      <c r="AS52" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT52" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU52" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW52" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX52" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ52" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA52" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE52" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF52">
-        <v>4</v>
-      </c>
-      <c r="BP52" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ52" t="s">
-        <v>297</v>
-      </c>
-      <c r="BR52" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS52" t="s">
-        <v>381</v>
-      </c>
-      <c r="BY52">
+      <c r="AN52">
         <v>1</v>
       </c>
-      <c r="BZ52">
-        <v>1</v>
-      </c>
-      <c r="CF52">
+      <c r="AT52">
         <v>2</v>
       </c>
-      <c r="CH52">
+      <c r="AV52">
         <v>3</v>
       </c>
-      <c r="CI52">
-        <v>0</v>
-      </c>
-      <c r="CJ52">
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>26034</v>
       </c>
@@ -8635,35 +6080,20 @@
       <c r="AA53">
         <v>5</v>
       </c>
-      <c r="AD53" t="s">
-        <v>64</v>
+      <c r="AB53" t="s">
+        <v>92</v>
       </c>
       <c r="AF53" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS53" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT53" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU53" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW53" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA53" t="s">
         <v>66</v>
       </c>
-      <c r="BD53" t="s">
+      <c r="AI53" t="s">
         <v>95</v>
       </c>
-      <c r="BF53">
+      <c r="AK53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>26195</v>
       </c>
@@ -8730,104 +6160,38 @@
       <c r="AA54">
         <v>16</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AB54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ54" t="s">
         <v>64</v>
       </c>
-      <c r="AE54">
-        <v>3</v>
-      </c>
-      <c r="AF54">
-        <v>30</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>383</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>384</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>385</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>276</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP54" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ54" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR54" t="s">
-        <v>387</v>
-      </c>
-      <c r="AS54" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT54" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU54" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV54" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW54" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX54" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA54" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE54" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF54">
+      <c r="AK54">
         <v>2</v>
       </c>
-      <c r="BG54" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK54" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP54" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR54" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS54" t="s">
-        <v>388</v>
-      </c>
-      <c r="BT54" t="s">
-        <v>74</v>
-      </c>
-      <c r="BZ54">
+      <c r="AN54">
         <v>8</v>
       </c>
-      <c r="CE54">
+      <c r="AS54">
         <v>8</v>
       </c>
-      <c r="CH54">
+      <c r="AV54">
         <v>8</v>
       </c>
-      <c r="CI54">
-        <v>0</v>
-      </c>
-      <c r="CJ54">
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>26585</v>
       </c>
@@ -8888,35 +6252,20 @@
       <c r="AA55">
         <v>5</v>
       </c>
-      <c r="AD55" t="s">
-        <v>64</v>
+      <c r="AB55" t="s">
+        <v>92</v>
       </c>
       <c r="AF55" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT55" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU55" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW55" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA55" t="s">
         <v>66</v>
       </c>
-      <c r="BD55" t="s">
+      <c r="AI55" t="s">
         <v>95</v>
       </c>
-      <c r="BF55">
+      <c r="AK55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>26608</v>
       </c>
@@ -8980,32 +6329,23 @@
       <c r="AA56">
         <v>3</v>
       </c>
-      <c r="AD56" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT56" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU56" t="s">
-        <v>241</v>
+      <c r="AF56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AY56">
+        <v>70600</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>73</v>
       </c>
       <c r="BA56" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF56">
-        <v>0</v>
-      </c>
-      <c r="CK56">
-        <v>70600</v>
-      </c>
-      <c r="CL56" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM56" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>26861</v>
       </c>
@@ -9069,35 +6409,20 @@
       <c r="AA57">
         <v>5</v>
       </c>
-      <c r="AD57" t="s">
-        <v>64</v>
+      <c r="AB57" t="s">
+        <v>92</v>
       </c>
       <c r="AF57" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS57" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT57" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU57" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW57" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA57" t="s">
         <v>66</v>
       </c>
-      <c r="BD57" t="s">
+      <c r="AI57" t="s">
         <v>95</v>
       </c>
-      <c r="BF57">
+      <c r="AK57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>27063</v>
       </c>
@@ -9170,44 +6495,20 @@
       <c r="AA58">
         <v>6</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AB58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ58" t="s">
         <v>64</v>
       </c>
-      <c r="AE58">
-        <v>1</v>
-      </c>
-      <c r="AF58">
-        <v>20</v>
-      </c>
-      <c r="AS58" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT58" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU58" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW58" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA58" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE58" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF58">
+      <c r="AK58">
         <v>2</v>
       </c>
-      <c r="BP58" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ58" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>27281</v>
       </c>
@@ -9268,35 +6569,20 @@
       <c r="AA59">
         <v>5</v>
       </c>
-      <c r="AD59" t="s">
-        <v>64</v>
+      <c r="AB59" t="s">
+        <v>92</v>
       </c>
       <c r="AF59" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS59" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT59" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU59" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW59" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA59" t="s">
         <v>66</v>
       </c>
-      <c r="BD59" t="s">
+      <c r="AI59" t="s">
         <v>95</v>
       </c>
-      <c r="BF59">
+      <c r="AK59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>27333</v>
       </c>
@@ -9369,44 +6655,20 @@
       <c r="AA60">
         <v>6</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AB60" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ60" t="s">
         <v>64</v>
       </c>
-      <c r="AE60">
-        <v>1</v>
-      </c>
-      <c r="AF60">
-        <v>25</v>
-      </c>
-      <c r="AS60" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU60" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW60" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA60" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE60" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF60">
+      <c r="AK60">
         <v>2</v>
       </c>
-      <c r="BP60" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ60" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="61" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>27500</v>
       </c>
@@ -9470,32 +6732,23 @@
       <c r="AA61">
         <v>3</v>
       </c>
-      <c r="AD61" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU61" t="s">
-        <v>241</v>
+      <c r="AF61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AY61">
+        <v>120600</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>73</v>
       </c>
       <c r="BA61" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF61">
-        <v>0</v>
-      </c>
-      <c r="CK61">
-        <v>120600</v>
-      </c>
-      <c r="CL61" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM61" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>27970</v>
       </c>
@@ -9568,44 +6821,20 @@
       <c r="AA62">
         <v>6</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AB62" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ62" t="s">
         <v>64</v>
       </c>
-      <c r="AE62">
-        <v>1</v>
-      </c>
-      <c r="AF62">
-        <v>23</v>
-      </c>
-      <c r="AS62" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU62" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW62" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA62" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE62" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF62">
+      <c r="AK62">
         <v>2</v>
       </c>
-      <c r="BP62" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ62" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="63" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>28393</v>
       </c>
@@ -9678,44 +6907,20 @@
       <c r="AA63">
         <v>6</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AB63" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ63" t="s">
         <v>64</v>
       </c>
-      <c r="AE63">
-        <v>1</v>
-      </c>
-      <c r="AF63">
-        <v>25</v>
-      </c>
-      <c r="AS63" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT63" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU63" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW63" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA63" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE63" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF63">
+      <c r="AK63">
         <v>2</v>
       </c>
-      <c r="BP63" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ63" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="64" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>29221</v>
       </c>
@@ -9788,44 +6993,20 @@
       <c r="AA64">
         <v>6</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AB64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ64" t="s">
         <v>64</v>
       </c>
-      <c r="AE64">
-        <v>1</v>
-      </c>
-      <c r="AF64">
-        <v>20</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU64" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW64" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA64" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE64" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF64">
+      <c r="AK64">
         <v>2</v>
       </c>
-      <c r="BP64" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ64" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="65" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>29310</v>
       </c>
@@ -9908,136 +7089,58 @@
         <v>17</v>
       </c>
       <c r="AB65" t="s">
-        <v>389</v>
+        <v>84</v>
       </c>
       <c r="AC65" t="s">
         <v>64</v>
       </c>
       <c r="AD65" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ65" t="s">
         <v>64</v>
       </c>
-      <c r="AH65" t="s">
-        <v>390</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>392</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM65" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN65" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO65" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP65" t="s">
-        <v>394</v>
-      </c>
-      <c r="AQ65" t="s">
-        <v>395</v>
-      </c>
-      <c r="AR65" t="s">
-        <v>350</v>
-      </c>
-      <c r="AS65" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT65" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU65" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW65" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY65" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ65" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA65" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD65" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE65" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF65">
+      <c r="AK65">
         <v>9</v>
       </c>
-      <c r="BG65" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK65" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL65" t="s">
-        <v>396</v>
-      </c>
-      <c r="BP65" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ65" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR65" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS65" t="s">
-        <v>397</v>
-      </c>
-      <c r="BT65" t="s">
-        <v>64</v>
-      </c>
-      <c r="BU65" t="s">
-        <v>398</v>
-      </c>
-      <c r="BY65">
+      <c r="AM65">
         <v>11</v>
       </c>
-      <c r="BZ65">
+      <c r="AN65">
         <v>32</v>
       </c>
-      <c r="CA65">
+      <c r="AO65">
         <v>25</v>
       </c>
-      <c r="CE65">
+      <c r="AS65">
         <v>17</v>
       </c>
-      <c r="CF65">
+      <c r="AT65">
         <v>33</v>
       </c>
-      <c r="CG65">
+      <c r="AU65">
         <v>18</v>
       </c>
-      <c r="CH65">
+      <c r="AV65">
         <v>15</v>
       </c>
-      <c r="CI65">
+      <c r="AW65">
         <v>1</v>
       </c>
-      <c r="CJ65">
+      <c r="AX65">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>29471</v>
       </c>
@@ -10111,112 +7214,46 @@
         <v>18</v>
       </c>
       <c r="AB66" t="s">
-        <v>270</v>
+        <v>92</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>64</v>
       </c>
       <c r="AD66" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ66" t="s">
         <v>64</v>
       </c>
-      <c r="AE66">
-        <v>6</v>
-      </c>
-      <c r="AF66">
-        <v>14</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL66" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM66" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN66" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO66" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP66" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ66" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS66" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT66" t="s">
-        <v>306</v>
-      </c>
-      <c r="AU66" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX66" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY66" t="s">
-        <v>123</v>
+      <c r="AK66">
+        <v>4</v>
+      </c>
+      <c r="AS66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <v>7644</v>
       </c>
       <c r="AZ66" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA66" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD66" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE66" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF66">
-        <v>4</v>
-      </c>
-      <c r="BP66" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ66" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR66" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS66" t="s">
-        <v>309</v>
-      </c>
-      <c r="CE66">
-        <v>5</v>
-      </c>
-      <c r="CI66">
-        <v>0</v>
-      </c>
-      <c r="CJ66">
-        <v>0</v>
-      </c>
-      <c r="CK66">
-        <v>7644</v>
-      </c>
-      <c r="CL66" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>30029</v>
       </c>
@@ -10289,44 +7326,20 @@
       <c r="AA67">
         <v>6</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AB67" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ67" t="s">
         <v>64</v>
       </c>
-      <c r="AE67">
-        <v>1</v>
-      </c>
-      <c r="AF67">
-        <v>15</v>
-      </c>
-      <c r="AS67" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT67" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU67" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW67" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA67" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE67" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF67">
+      <c r="AK67">
         <v>2</v>
       </c>
-      <c r="BP67" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ67" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="68" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>30367</v>
       </c>
@@ -10409,115 +7422,49 @@
         <v>17</v>
       </c>
       <c r="AB68" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD68" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC68" t="s">
         <v>64</v>
       </c>
-      <c r="AE68">
+      <c r="AF68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK68">
         <v>2</v>
       </c>
-      <c r="AH68" t="s">
-        <v>400</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>401</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL68" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM68" t="s">
-        <v>403</v>
-      </c>
-      <c r="AN68" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO68" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP68" t="s">
-        <v>315</v>
-      </c>
-      <c r="AQ68" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR68" t="s">
-        <v>338</v>
-      </c>
-      <c r="AS68" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT68" t="s">
-        <v>251</v>
-      </c>
-      <c r="AU68" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV68" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW68" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX68" t="s">
-        <v>64</v>
-      </c>
-      <c r="BA68" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE68" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF68">
-        <v>2</v>
-      </c>
-      <c r="BG68" t="s">
-        <v>74</v>
-      </c>
-      <c r="BK68" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR68" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS68" t="s">
-        <v>254</v>
-      </c>
-      <c r="BT68" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY68">
-        <v>0</v>
-      </c>
-      <c r="BZ68">
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
         <v>4</v>
       </c>
-      <c r="CA68">
+      <c r="AO68">
         <v>6</v>
       </c>
-      <c r="CE68">
-        <v>0</v>
-      </c>
-      <c r="CF68">
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
         <v>6</v>
       </c>
-      <c r="CG68">
+      <c r="AU68">
         <v>4</v>
       </c>
-      <c r="CH68">
+      <c r="AV68">
         <v>13</v>
       </c>
-      <c r="CI68">
-        <v>0</v>
-      </c>
-      <c r="CJ68">
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>30466</v>
       </c>
@@ -10581,32 +7528,23 @@
       <c r="AA69">
         <v>3</v>
       </c>
-      <c r="AD69" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU69" t="s">
-        <v>241</v>
+      <c r="AF69" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AY69">
+        <v>68200</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>73</v>
       </c>
       <c r="BA69" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF69">
-        <v>0</v>
-      </c>
-      <c r="CK69">
-        <v>68200</v>
-      </c>
-      <c r="CL69" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM69" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>30621</v>
       </c>
@@ -10679,44 +7617,20 @@
       <c r="AA70">
         <v>6</v>
       </c>
-      <c r="AD70" t="s">
+      <c r="AB70" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ70" t="s">
         <v>64</v>
       </c>
-      <c r="AE70">
-        <v>1</v>
-      </c>
-      <c r="AF70">
-        <v>25</v>
-      </c>
-      <c r="AS70" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT70" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU70" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW70" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA70" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE70" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF70">
+      <c r="AK70">
         <v>2</v>
       </c>
-      <c r="BP70" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ70" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="71" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>30658</v>
       </c>
@@ -10790,112 +7704,46 @@
         <v>18</v>
       </c>
       <c r="AB71" t="s">
-        <v>270</v>
+        <v>92</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>64</v>
       </c>
       <c r="AD71" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ71" t="s">
         <v>64</v>
       </c>
-      <c r="AE71">
-        <v>6</v>
-      </c>
-      <c r="AF71">
-        <v>14</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>300</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>301</v>
-      </c>
-      <c r="AL71" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM71" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN71" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO71" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>303</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>304</v>
-      </c>
-      <c r="AR71" t="s">
-        <v>250</v>
-      </c>
-      <c r="AS71" t="s">
-        <v>305</v>
-      </c>
-      <c r="AT71" t="s">
-        <v>306</v>
-      </c>
-      <c r="AU71" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX71" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY71" t="s">
-        <v>123</v>
+      <c r="AK71">
+        <v>4</v>
+      </c>
+      <c r="AS71">
+        <v>5</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+      <c r="AY71">
+        <v>15680</v>
       </c>
       <c r="AZ71" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA71" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD71" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE71" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF71">
-        <v>4</v>
-      </c>
-      <c r="BP71" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ71" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR71" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS71" t="s">
-        <v>404</v>
-      </c>
-      <c r="CE71">
-        <v>5</v>
-      </c>
-      <c r="CI71">
-        <v>0</v>
-      </c>
-      <c r="CJ71">
-        <v>0</v>
-      </c>
-      <c r="CK71">
-        <v>15680</v>
-      </c>
-      <c r="CL71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>31103</v>
       </c>
@@ -10968,44 +7816,20 @@
       <c r="AA72">
         <v>6</v>
       </c>
-      <c r="AD72" t="s">
+      <c r="AB72" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ72" t="s">
         <v>64</v>
       </c>
-      <c r="AE72">
-        <v>1</v>
-      </c>
-      <c r="AF72">
-        <v>15</v>
-      </c>
-      <c r="AS72" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU72" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA72" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE72" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF72">
+      <c r="AK72">
         <v>2</v>
       </c>
-      <c r="BP72" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ72" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="73" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>31166</v>
       </c>
@@ -11081,122 +7905,56 @@
       <c r="AA73">
         <v>17</v>
       </c>
+      <c r="AB73" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>64</v>
+      </c>
       <c r="AD73" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ73" t="s">
         <v>64</v>
       </c>
-      <c r="AE73">
-        <v>8</v>
-      </c>
-      <c r="AF73">
-        <v>14</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>405</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>406</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>407</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>408</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>409</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>411</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>412</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>413</v>
-      </c>
-      <c r="AU73" t="s">
-        <v>414</v>
-      </c>
-      <c r="AW73" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX73" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY73" t="s">
-        <v>123</v>
+      <c r="AK73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>2</v>
+      </c>
+      <c r="AU73">
+        <v>2</v>
+      </c>
+      <c r="AV73">
+        <v>45</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
+      <c r="AX73">
+        <v>1</v>
+      </c>
+      <c r="AY73">
+        <v>765000</v>
       </c>
       <c r="AZ73" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="BA73" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD73" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE73" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF73">
-        <v>1</v>
-      </c>
-      <c r="BG73" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK73" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP73" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR73" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT73" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA73">
-        <v>2</v>
-      </c>
-      <c r="CG73">
-        <v>2</v>
-      </c>
-      <c r="CH73">
-        <v>45</v>
-      </c>
-      <c r="CI73">
-        <v>0</v>
-      </c>
-      <c r="CJ73">
-        <v>1</v>
-      </c>
-      <c r="CK73">
-        <v>765000</v>
-      </c>
-      <c r="CL73" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM73" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>31166</v>
       </c>
@@ -11272,125 +8030,56 @@
       <c r="AA74">
         <v>18</v>
       </c>
+      <c r="AB74" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>64</v>
+      </c>
       <c r="AD74" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ74" t="s">
         <v>64</v>
       </c>
-      <c r="AE74">
-        <v>8</v>
-      </c>
-      <c r="AF74">
-        <v>14</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>405</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>406</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>259</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>407</v>
-      </c>
-      <c r="AL74" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>408</v>
-      </c>
-      <c r="AN74" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>409</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>410</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>411</v>
-      </c>
-      <c r="AR74" t="s">
-        <v>412</v>
-      </c>
-      <c r="AS74" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>415</v>
-      </c>
-      <c r="AU74" t="s">
-        <v>414</v>
-      </c>
-      <c r="AV74" t="s">
-        <v>377</v>
-      </c>
-      <c r="AW74" t="s">
-        <v>92</v>
-      </c>
-      <c r="AX74" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY74" t="s">
-        <v>123</v>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AU74">
+        <v>2</v>
+      </c>
+      <c r="AV74">
+        <v>45</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+      <c r="AX74">
+        <v>1</v>
+      </c>
+      <c r="AY74">
+        <v>765000</v>
       </c>
       <c r="AZ74" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="BA74" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD74" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE74" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF74">
-        <v>1</v>
-      </c>
-      <c r="BG74" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK74" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP74" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR74" t="s">
-        <v>74</v>
-      </c>
-      <c r="BT74" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA74">
-        <v>2</v>
-      </c>
-      <c r="CG74">
-        <v>2</v>
-      </c>
-      <c r="CH74">
-        <v>45</v>
-      </c>
-      <c r="CI74">
-        <v>0</v>
-      </c>
-      <c r="CJ74">
-        <v>1</v>
-      </c>
-      <c r="CK74">
-        <v>765000</v>
-      </c>
-      <c r="CL74" t="s">
-        <v>73</v>
-      </c>
-      <c r="CM74" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>31969</v>
       </c>
@@ -11463,44 +8152,20 @@
       <c r="AA75">
         <v>6</v>
       </c>
-      <c r="AD75" t="s">
+      <c r="AB75" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ75" t="s">
         <v>64</v>
       </c>
-      <c r="AE75">
-        <v>1</v>
-      </c>
-      <c r="AF75">
-        <v>25</v>
-      </c>
-      <c r="AS75" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT75" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU75" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW75" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA75" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE75" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF75">
+      <c r="AK75">
         <v>2</v>
       </c>
-      <c r="BP75" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ75" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="76" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>32010</v>
       </c>
@@ -11583,142 +8248,61 @@
         <v>20</v>
       </c>
       <c r="AB76" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD76" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ76" t="s">
         <v>64</v>
       </c>
-      <c r="AE76">
-        <v>8</v>
-      </c>
-      <c r="AF76">
-        <v>10</v>
-      </c>
-      <c r="AG76">
-        <v>14</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>417</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>418</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>419</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>420</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>421</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>422</v>
-      </c>
-      <c r="AN76" t="s">
-        <v>423</v>
-      </c>
-      <c r="AO76" t="s">
-        <v>264</v>
-      </c>
-      <c r="AP76" t="s">
-        <v>424</v>
-      </c>
-      <c r="AQ76" t="s">
-        <v>425</v>
-      </c>
-      <c r="AR76" t="s">
-        <v>426</v>
-      </c>
-      <c r="AS76" t="s">
-        <v>427</v>
-      </c>
-      <c r="AT76" t="s">
-        <v>428</v>
-      </c>
-      <c r="AU76" t="s">
-        <v>429</v>
-      </c>
-      <c r="AV76" t="s">
-        <v>430</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX76" t="s">
+      <c r="AK76">
+        <v>7</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>1</v>
+      </c>
+      <c r="AS76">
+        <v>0</v>
+      </c>
+      <c r="AT76">
+        <v>0</v>
+      </c>
+      <c r="AU76">
+        <v>1</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>0</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>277000</v>
+      </c>
+      <c r="AZ76" t="s">
+        <v>193</v>
+      </c>
+      <c r="BA76" t="s">
         <v>74</v>
       </c>
-      <c r="BA76" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD76" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE76" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF76">
-        <v>7</v>
-      </c>
-      <c r="BG76" t="s">
-        <v>64</v>
-      </c>
-      <c r="BK76" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL76" t="s">
-        <v>431</v>
-      </c>
-      <c r="BP76" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ76" t="s">
-        <v>378</v>
-      </c>
-      <c r="BR76" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS76" t="s">
-        <v>432</v>
-      </c>
-      <c r="BY76">
-        <v>0</v>
-      </c>
-      <c r="BZ76">
-        <v>0</v>
-      </c>
-      <c r="CA76">
-        <v>1</v>
-      </c>
-      <c r="CE76">
-        <v>0</v>
-      </c>
-      <c r="CF76">
-        <v>0</v>
-      </c>
-      <c r="CG76">
-        <v>1</v>
-      </c>
-      <c r="CH76">
-        <v>3</v>
-      </c>
-      <c r="CI76">
-        <v>0</v>
-      </c>
-      <c r="CJ76">
-        <v>0</v>
-      </c>
-      <c r="CK76">
-        <v>277000</v>
-      </c>
-      <c r="CL76" t="s">
-        <v>193</v>
-      </c>
-      <c r="CM76" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="77" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>32296</v>
       </c>
@@ -11782,35 +8366,20 @@
       <c r="AA77">
         <v>5</v>
       </c>
-      <c r="AD77" t="s">
-        <v>64</v>
+      <c r="AB77" t="s">
+        <v>92</v>
       </c>
       <c r="AF77" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU77" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA77" t="s">
         <v>66</v>
       </c>
-      <c r="BD77" t="s">
+      <c r="AI77" t="s">
         <v>95</v>
       </c>
-      <c r="BF77">
+      <c r="AK77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>32692</v>
       </c>
@@ -11874,35 +8443,20 @@
       <c r="AA78">
         <v>5</v>
       </c>
-      <c r="AD78" t="s">
-        <v>64</v>
+      <c r="AB78" t="s">
+        <v>92</v>
       </c>
       <c r="AF78" t="s">
-        <v>266</v>
-      </c>
-      <c r="AS78" t="s">
-        <v>267</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>268</v>
-      </c>
-      <c r="AU78" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW78" t="s">
-        <v>92</v>
-      </c>
-      <c r="BA78" t="s">
         <v>66</v>
       </c>
-      <c r="BD78" t="s">
+      <c r="AI78" t="s">
         <v>95</v>
       </c>
-      <c r="BF78">
+      <c r="AK78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:91" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>32725</v>
       </c>
@@ -11975,45 +8529,21 @@
       <c r="AA79">
         <v>6</v>
       </c>
-      <c r="AD79" t="s">
+      <c r="AB79" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ79" t="s">
         <v>64</v>
       </c>
-      <c r="AE79">
-        <v>1</v>
-      </c>
-      <c r="AF79">
-        <v>25</v>
-      </c>
-      <c r="AS79" t="s">
-        <v>236</v>
-      </c>
-      <c r="AT79" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU79" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW79" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA79" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE79" t="s">
-        <v>64</v>
-      </c>
-      <c r="BF79">
+      <c r="AK79">
         <v>2</v>
-      </c>
-      <c r="BP79" t="s">
-        <v>64</v>
-      </c>
-      <c r="BQ79" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CM1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BA1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/sample_clean_a_agile_only.xlsx
+++ b/data/sample_clean_a_agile_only.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7e8a9698d8ff09e/ddata/UK/UKStudy/BSCHonsComputingTopup/2025-6CC552-ResearchProject/dataset/ISBSG/Ready4MLTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC10486B311D5E065BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ADA9D80-EF9B-4474-B1A0-8D8D43E1F94A}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_F25DC773A252ABDACC10486B311D5E065BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30FD7E27-9F18-4CBC-9FD8-EF55BF96FF3A}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="6830" windowWidth="25620" windowHeight="6860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4190" windowWidth="25620" windowHeight="9740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AZ$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="197">
   <si>
     <t>ISBSG Project ID</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>Stand alone</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Government</t>
@@ -694,10 +691,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,15 +956,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA79"/>
+  <dimension ref="A1:AZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:BB1048576"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:53" s="1" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" s="1" customFormat="1" ht="199.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,70 +1062,67 @@
         <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10279</v>
       </c>
@@ -1208,17 +1198,14 @@
       <c r="AB2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK2">
+      <c r="AI2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10317</v>
       </c>
@@ -1229,31 +1216,31 @@
         <v>2015</v>
       </c>
       <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
         <v>57</v>
       </c>
       <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
         <v>70</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
       </c>
       <c r="L3">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N3">
         <v>816</v>
@@ -1282,23 +1269,20 @@
       <c r="AA3">
         <v>3</v>
       </c>
-      <c r="AF3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>81500</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>72</v>
       </c>
       <c r="AZ3" t="s">
         <v>73</v>
       </c>
-      <c r="BA3" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>10572</v>
       </c>
@@ -1309,31 +1293,31 @@
         <v>2014</v>
       </c>
       <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
         <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4">
         <v>85</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N4">
         <v>774</v>
@@ -1362,61 +1346,58 @@
       <c r="AA4">
         <v>3</v>
       </c>
-      <c r="AF4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
         <v>69850</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>72</v>
       </c>
       <c r="AZ4" t="s">
         <v>73</v>
       </c>
-      <c r="BA4" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11278</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>2010</v>
       </c>
       <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
         <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L5">
         <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>4036</v>
@@ -1443,13 +1424,13 @@
         <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W5">
         <v>9</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s">
         <v>63</v>
@@ -1458,55 +1439,52 @@
         <v>16</v>
       </c>
       <c r="AB5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD5" t="s">
         <v>84</v>
       </c>
-      <c r="AC5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>85</v>
       </c>
-      <c r="AE5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK5">
+      <c r="AI5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ5">
         <v>2</v>
       </c>
+      <c r="AL5">
+        <v>3</v>
+      </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>5</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>5</v>
+      </c>
+      <c r="AT5">
+        <v>4</v>
+      </c>
+      <c r="AU5">
         <v>3</v>
       </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>5</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>5</v>
-      </c>
-      <c r="AU5">
-        <v>4</v>
-      </c>
       <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
         <v>3</v>
       </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>3</v>
-      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>11497</v>
       </c>
@@ -1544,7 +1522,7 @@
         <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6">
         <v>88</v>
@@ -1582,17 +1560,14 @@
       <c r="AB6" t="s">
         <v>65</v>
       </c>
-      <c r="AF6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK6">
+      <c r="AI6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11738</v>
       </c>
@@ -1668,40 +1643,37 @@
       <c r="AB7" t="s">
         <v>65</v>
       </c>
-      <c r="AF7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK7">
+      <c r="AI7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11801</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>2009</v>
       </c>
       <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
         <v>59</v>
@@ -1713,7 +1685,7 @@
         <v>63</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8">
         <v>2742</v>
@@ -1740,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="V8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W8">
         <v>8</v>
@@ -1752,58 +1724,55 @@
         <v>18</v>
       </c>
       <c r="AB8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" t="s">
         <v>92</v>
       </c>
-      <c r="AC8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>93</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AH8" t="s">
         <v>94</v>
       </c>
-      <c r="AF8" t="s">
-        <v>66</v>
-      </c>
       <c r="AI8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK8">
+        <v>64</v>
+      </c>
+      <c r="AJ8">
         <v>3</v>
       </c>
+      <c r="AL8">
+        <v>8</v>
+      </c>
       <c r="AM8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AN8">
         <v>0</v>
       </c>
-      <c r="AO8">
-        <v>0</v>
+      <c r="AR8">
+        <v>2</v>
       </c>
       <c r="AS8">
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AU8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV8">
         <v>1</v>
       </c>
       <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>12664</v>
       </c>
@@ -1814,31 +1783,31 @@
         <v>2014</v>
       </c>
       <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9">
         <v>138</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9">
         <v>682</v>
@@ -1867,23 +1836,20 @@
       <c r="AA9">
         <v>3</v>
       </c>
-      <c r="AF9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
         <v>61435</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>72</v>
       </c>
       <c r="AZ9" t="s">
         <v>73</v>
       </c>
-      <c r="BA9" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>13026</v>
       </c>
@@ -1921,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10">
         <v>27</v>
@@ -1959,17 +1925,14 @@
       <c r="AB10" t="s">
         <v>65</v>
       </c>
-      <c r="AF10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK10">
+      <c r="AI10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>13384</v>
       </c>
@@ -2007,7 +1970,7 @@
         <v>30</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N11">
         <v>51</v>
@@ -2045,17 +2008,14 @@
       <c r="AB11" t="s">
         <v>65</v>
       </c>
-      <c r="AF11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK11">
+      <c r="AI11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>13695</v>
       </c>
@@ -2093,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -2131,17 +2091,14 @@
       <c r="AB12" t="s">
         <v>65</v>
       </c>
-      <c r="AF12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK12">
+      <c r="AI12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13784</v>
       </c>
@@ -2217,17 +2174,14 @@
       <c r="AB13" t="s">
         <v>65</v>
       </c>
-      <c r="AF13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK13">
+      <c r="AI13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14319</v>
       </c>
@@ -2241,31 +2195,31 @@
         <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
       <c r="G14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" t="s">
         <v>100</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>101</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>102</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>104</v>
       </c>
       <c r="L14">
         <v>748</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N14">
         <v>1518</v>
@@ -2292,19 +2246,16 @@
         <v>5</v>
       </c>
       <c r="AB14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK14">
+        <v>91</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14325</v>
       </c>
@@ -2315,34 +2266,34 @@
         <v>2009</v>
       </c>
       <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
         <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
       </c>
       <c r="F15" t="s">
         <v>55</v>
       </c>
       <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
         <v>106</v>
       </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>107</v>
-      </c>
       <c r="J15" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" t="s">
         <v>70</v>
-      </c>
-      <c r="K15" t="s">
-        <v>71</v>
       </c>
       <c r="L15">
         <v>498</v>
       </c>
       <c r="M15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>19795</v>
@@ -2366,66 +2317,63 @@
         <v>18</v>
       </c>
       <c r="V15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W15">
         <v>22</v>
       </c>
       <c r="Y15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA15">
         <v>18</v>
       </c>
       <c r="AB15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC15" t="s">
         <v>64</v>
       </c>
       <c r="AD15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" t="s">
         <v>110</v>
       </c>
-      <c r="AE15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK15">
+      <c r="AJ15">
         <v>2</v>
       </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
       <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14335</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>2011</v>
       </c>
       <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
         <v>112</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>113</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>114</v>
       </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
         <v>58</v>
@@ -2440,7 +2388,7 @@
         <v>456</v>
       </c>
       <c r="M16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N16">
         <v>5408</v>
@@ -2467,7 +2415,7 @@
         <v>9</v>
       </c>
       <c r="V16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W16">
         <v>5</v>
@@ -2482,81 +2430,78 @@
         <v>17</v>
       </c>
       <c r="AB16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC16" t="s">
         <v>64</v>
       </c>
       <c r="AD16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE16" t="s">
         <v>116</v>
       </c>
-      <c r="AE16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>66</v>
+      <c r="AH16" t="s">
+        <v>94</v>
       </c>
       <c r="AI16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK16">
+        <v>64</v>
+      </c>
+      <c r="AJ16">
         <v>7</v>
       </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
+        <v>2</v>
+      </c>
+      <c r="AR16">
         <v>1</v>
       </c>
-      <c r="AO16">
+      <c r="AS16">
         <v>2</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>3</v>
+      </c>
+      <c r="AV16">
         <v>1</v>
-      </c>
-      <c r="AT16">
-        <v>2</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>3</v>
       </c>
       <c r="AW16">
         <v>1</v>
       </c>
-      <c r="AX16">
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14345</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>2009</v>
       </c>
       <c r="D17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" t="s">
         <v>118</v>
-      </c>
-      <c r="E17" t="s">
-        <v>119</v>
       </c>
       <c r="F17" t="s">
         <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
         <v>58</v>
@@ -2565,13 +2510,13 @@
         <v>59</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L17">
         <v>114</v>
       </c>
       <c r="M17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N17">
         <v>429</v>
@@ -2595,84 +2540,81 @@
         <v>3</v>
       </c>
       <c r="V17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W17">
         <v>4</v>
       </c>
       <c r="Y17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA17">
         <v>18</v>
       </c>
       <c r="AB17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC17" t="s">
         <v>64</v>
       </c>
       <c r="AD17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE17" t="s">
         <v>123</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AH17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ17">
+        <v>4</v>
+      </c>
+      <c r="AR17">
+        <v>4</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>17160</v>
+      </c>
+      <c r="AY17" t="s">
         <v>124</v>
       </c>
-      <c r="AF17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK17">
-        <v>4</v>
-      </c>
-      <c r="AS17">
-        <v>4</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>17160</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>14525</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>2010</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
         <v>59</v>
@@ -2684,7 +2626,7 @@
         <v>695</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N18">
         <v>19606</v>
@@ -2711,67 +2653,64 @@
         <v>19</v>
       </c>
       <c r="V18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W18">
         <v>26</v>
       </c>
       <c r="Y18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA18">
         <v>17</v>
       </c>
       <c r="AB18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC18" t="s">
         <v>64</v>
       </c>
       <c r="AD18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE18" t="s">
         <v>129</v>
       </c>
-      <c r="AE18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK18">
+      <c r="AI18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ18">
         <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>5</v>
       </c>
       <c r="AM18">
         <v>5</v>
       </c>
       <c r="AN18">
-        <v>5</v>
-      </c>
-      <c r="AO18">
         <v>16</v>
       </c>
+      <c r="AR18">
+        <v>2</v>
+      </c>
       <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>24</v>
+      </c>
+      <c r="AU18">
+        <v>10</v>
+      </c>
+      <c r="AV18">
         <v>2</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>24</v>
-      </c>
-      <c r="AV18">
-        <v>10</v>
       </c>
       <c r="AW18">
         <v>2</v>
       </c>
-      <c r="AX18">
-        <v>2</v>
-      </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>14535</v>
       </c>
@@ -2782,19 +2721,19 @@
         <v>2009</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
         <v>58</v>
@@ -2809,7 +2748,7 @@
         <v>483</v>
       </c>
       <c r="M19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N19">
         <v>331</v>
@@ -2833,13 +2772,13 @@
         <v>4</v>
       </c>
       <c r="V19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W19">
         <v>5</v>
       </c>
       <c r="X19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s">
         <v>63</v>
@@ -2851,43 +2790,40 @@
         <v>65</v>
       </c>
       <c r="AC19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK19">
+        <v>73</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ19">
         <v>2</v>
       </c>
+      <c r="AL19">
+        <v>6</v>
+      </c>
       <c r="AM19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
         <v>1</v>
       </c>
+      <c r="AR19">
+        <v>1</v>
+      </c>
       <c r="AS19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT19">
         <v>3</v>
       </c>
-      <c r="AU19">
-        <v>3</v>
+      <c r="AV19">
+        <v>1</v>
       </c>
       <c r="AW19">
         <v>1</v>
       </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>14621</v>
       </c>
@@ -2898,19 +2834,19 @@
         <v>2008</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
         <v>58</v>
@@ -2919,7 +2855,7 @@
         <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20">
         <v>23</v>
@@ -2952,13 +2888,13 @@
         <v>1.5</v>
       </c>
       <c r="V20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W20">
         <v>3</v>
       </c>
       <c r="X20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y20" t="s">
         <v>63</v>
@@ -2970,21 +2906,21 @@
         <v>65</v>
       </c>
       <c r="AC20" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK20">
+        <v>73</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ20">
         <v>2</v>
       </c>
+      <c r="AM20">
+        <v>2</v>
+      </c>
       <c r="AN20">
-        <v>2</v>
-      </c>
-      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
         <v>1</v>
       </c>
       <c r="AS20">
@@ -2994,25 +2930,22 @@
         <v>1</v>
       </c>
       <c r="AU20">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AV20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW20">
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>0</v>
-      </c>
-      <c r="AY20">
         <v>4871</v>
       </c>
-      <c r="AZ20" t="s">
-        <v>125</v>
+      <c r="AY20" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>14928</v>
       </c>
@@ -3023,31 +2956,31 @@
         <v>2014</v>
       </c>
       <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
       </c>
       <c r="F21" t="s">
         <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
         <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L21">
         <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N21">
         <v>551</v>
@@ -3076,23 +3009,20 @@
       <c r="AA21">
         <v>3</v>
       </c>
-      <c r="AF21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
         <v>49753</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>72</v>
       </c>
       <c r="AZ21" t="s">
         <v>73</v>
       </c>
-      <c r="BA21" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>15011</v>
       </c>
@@ -3103,34 +3033,34 @@
         <v>2010</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" t="s">
         <v>55</v>
       </c>
       <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" t="s">
         <v>100</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>101</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>102</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>103</v>
-      </c>
-      <c r="K22" t="s">
-        <v>104</v>
       </c>
       <c r="L22">
         <v>257</v>
       </c>
       <c r="M22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N22">
         <v>452</v>
@@ -3157,19 +3087,16 @@
         <v>5</v>
       </c>
       <c r="AB22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK22">
+        <v>91</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>15148</v>
       </c>
@@ -3180,31 +3107,31 @@
         <v>2014</v>
       </c>
       <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
         <v>67</v>
-      </c>
-      <c r="E23" t="s">
-        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
         <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L23">
         <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N23">
         <v>615</v>
@@ -3233,23 +3160,20 @@
       <c r="AA23">
         <v>3</v>
       </c>
-      <c r="AF23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
         <v>55440</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>72</v>
       </c>
       <c r="AZ23" t="s">
         <v>73</v>
       </c>
-      <c r="BA23" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>15558</v>
       </c>
@@ -3260,31 +3184,31 @@
         <v>2014</v>
       </c>
       <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
         <v>57</v>
       </c>
       <c r="J24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" t="s">
         <v>70</v>
-      </c>
-      <c r="K24" t="s">
-        <v>71</v>
       </c>
       <c r="L24">
         <v>45</v>
       </c>
       <c r="M24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N24">
         <v>1271</v>
@@ -3313,23 +3237,20 @@
       <c r="AA24">
         <v>3</v>
       </c>
-      <c r="AF24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
         <v>104200</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>72</v>
       </c>
       <c r="AZ24" t="s">
         <v>73</v>
       </c>
-      <c r="BA24" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>15723</v>
       </c>
@@ -3405,40 +3326,37 @@
       <c r="AB25" t="s">
         <v>65</v>
       </c>
-      <c r="AF25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK25">
+      <c r="AI25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>16039</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <v>2010</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
         <v>59</v>
@@ -3450,7 +3368,7 @@
         <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N26">
         <v>1002</v>
@@ -3477,13 +3395,13 @@
         <v>5</v>
       </c>
       <c r="V26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W26">
         <v>3</v>
       </c>
       <c r="X26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y26" t="s">
         <v>63</v>
@@ -3495,52 +3413,49 @@
         <v>19</v>
       </c>
       <c r="AB26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC26" t="s">
         <v>64</v>
       </c>
       <c r="AE26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK26">
+        <v>85</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ26">
         <v>4</v>
       </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
       <c r="AM26">
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
         <v>3</v>
       </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
       <c r="AS26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW26">
         <v>0</v>
       </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>16563</v>
       </c>
@@ -3578,7 +3493,7 @@
         <v>9</v>
       </c>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N27">
         <v>23</v>
@@ -3616,17 +3531,14 @@
       <c r="AB27" t="s">
         <v>65</v>
       </c>
-      <c r="AF27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK27">
+      <c r="AI27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>17137</v>
       </c>
@@ -3637,31 +3549,31 @@
         <v>2014</v>
       </c>
       <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
         <v>67</v>
-      </c>
-      <c r="E28" t="s">
-        <v>68</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
         <v>57</v>
       </c>
       <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
         <v>70</v>
-      </c>
-      <c r="K28" t="s">
-        <v>71</v>
       </c>
       <c r="L28">
         <v>51</v>
       </c>
       <c r="M28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N28">
         <v>1222</v>
@@ -3690,23 +3602,20 @@
       <c r="AA28">
         <v>3</v>
       </c>
-      <c r="AF28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AY28">
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
         <v>100200</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>72</v>
       </c>
       <c r="AZ28" t="s">
         <v>73</v>
       </c>
-      <c r="BA28" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>17275</v>
       </c>
@@ -3717,34 +3626,34 @@
         <v>2010</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" t="s">
         <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" t="s">
         <v>101</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>102</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>103</v>
-      </c>
-      <c r="K29" t="s">
-        <v>104</v>
       </c>
       <c r="L29">
         <v>168</v>
       </c>
       <c r="M29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N29">
         <v>312</v>
@@ -3771,19 +3680,16 @@
         <v>5</v>
       </c>
       <c r="AB29" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK29">
+        <v>91</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>17293</v>
       </c>
@@ -3821,7 +3727,7 @@
         <v>59</v>
       </c>
       <c r="M30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N30">
         <v>82</v>
@@ -3859,17 +3765,14 @@
       <c r="AB30" t="s">
         <v>65</v>
       </c>
-      <c r="AF30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK30">
+      <c r="AI30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>17548</v>
       </c>
@@ -3880,34 +3783,34 @@
         <v>2010</v>
       </c>
       <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
         <v>139</v>
-      </c>
-      <c r="E31" t="s">
-        <v>140</v>
       </c>
       <c r="F31" t="s">
         <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I31" t="s">
         <v>101</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>102</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>103</v>
-      </c>
-      <c r="K31" t="s">
-        <v>104</v>
       </c>
       <c r="L31">
         <v>116</v>
       </c>
       <c r="M31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N31">
         <v>112</v>
@@ -3934,42 +3837,39 @@
         <v>5</v>
       </c>
       <c r="AB31" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK31">
+        <v>91</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>18118</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>2008</v>
       </c>
       <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
         <v>142</v>
-      </c>
-      <c r="E32" t="s">
-        <v>143</v>
       </c>
       <c r="F32" t="s">
         <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" t="s">
         <v>58</v>
@@ -3984,7 +3884,7 @@
         <v>912</v>
       </c>
       <c r="M32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N32">
         <v>4110</v>
@@ -4011,7 +3911,7 @@
         <v>15</v>
       </c>
       <c r="V32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W32">
         <v>10</v>
@@ -4029,84 +3929,81 @@
         <v>16</v>
       </c>
       <c r="AB32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC32" t="s">
         <v>64</v>
       </c>
       <c r="AD32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE32" t="s">
         <v>145</v>
       </c>
-      <c r="AE32" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK32">
+      <c r="AI32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ32">
         <v>5</v>
       </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
       <c r="AM32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN32">
         <v>5</v>
       </c>
-      <c r="AO32">
-        <v>5</v>
+      <c r="AR32">
+        <v>0</v>
       </c>
       <c r="AS32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AT32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU32">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="AV32">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AX32">
         <v>1</v>
       </c>
+      <c r="AY32" t="s">
+        <v>124</v>
+      </c>
       <c r="AZ32" t="s">
-        <v>125</v>
-      </c>
-      <c r="BA32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>18119</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33">
         <v>2010</v>
       </c>
       <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
-        <v>68</v>
-      </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
         <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s">
         <v>59</v>
@@ -4118,7 +4015,7 @@
         <v>109</v>
       </c>
       <c r="M33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N33">
         <v>2715</v>
@@ -4145,13 +4042,13 @@
         <v>9</v>
       </c>
       <c r="V33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W33">
         <v>5</v>
       </c>
       <c r="X33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y33" t="s">
         <v>63</v>
@@ -4160,58 +4057,55 @@
         <v>18</v>
       </c>
       <c r="AB33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD33" t="s">
         <v>92</v>
       </c>
-      <c r="AC33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>93</v>
-      </c>
       <c r="AE33" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>66</v>
+        <v>146</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>94</v>
       </c>
       <c r="AI33" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK33">
+        <v>64</v>
+      </c>
+      <c r="AJ33">
         <v>3</v>
       </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
       <c r="AM33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
         <v>4</v>
       </c>
-      <c r="AO33">
+      <c r="AT33">
         <v>1</v>
       </c>
-      <c r="AS33">
-        <v>0</v>
-      </c>
-      <c r="AT33">
-        <v>4</v>
-      </c>
       <c r="AU33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW33">
         <v>0</v>
       </c>
-      <c r="AX33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>18328</v>
       </c>
@@ -4287,17 +4181,14 @@
       <c r="AB34" t="s">
         <v>65</v>
       </c>
-      <c r="AF34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK34">
+      <c r="AI34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>18820</v>
       </c>
@@ -4308,31 +4199,31 @@
         <v>2014</v>
       </c>
       <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
         <v>67</v>
-      </c>
-      <c r="E35" t="s">
-        <v>68</v>
       </c>
       <c r="F35" t="s">
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>57</v>
       </c>
       <c r="J35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L35">
         <v>49</v>
       </c>
       <c r="M35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N35">
         <v>601</v>
@@ -4361,23 +4252,20 @@
       <c r="AA35">
         <v>3</v>
       </c>
-      <c r="AF35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AY35">
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
         <v>54230</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>72</v>
       </c>
       <c r="AZ35" t="s">
         <v>73</v>
       </c>
-      <c r="BA35" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>19161</v>
       </c>
@@ -4388,22 +4276,22 @@
         <v>2005</v>
       </c>
       <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
         <v>148</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>149</v>
       </c>
-      <c r="G36" t="s">
-        <v>150</v>
-      </c>
       <c r="H36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J36" t="s">
         <v>59</v>
       </c>
       <c r="K36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N36">
         <v>36593</v>
@@ -4415,31 +4303,28 @@
         <v>14.8</v>
       </c>
       <c r="V36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W36">
         <v>41</v>
       </c>
       <c r="Y36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA36">
         <v>1</v>
       </c>
-      <c r="AF36" t="s">
-        <v>66</v>
+      <c r="AH36" t="s">
+        <v>94</v>
       </c>
       <c r="AI36" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK36">
+        <v>64</v>
+      </c>
+      <c r="AJ36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>19363</v>
       </c>
@@ -4515,17 +4400,14 @@
       <c r="AB37" t="s">
         <v>65</v>
       </c>
-      <c r="AF37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK37">
+      <c r="AI37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>19859</v>
       </c>
@@ -4536,16 +4418,16 @@
         <v>2012</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F38" t="s">
         <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H38" t="s">
         <v>57</v>
@@ -4563,7 +4445,7 @@
         <v>82</v>
       </c>
       <c r="M38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N38">
         <v>225</v>
@@ -4578,7 +4460,7 @@
         <v>2.7</v>
       </c>
       <c r="V38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W38">
         <v>2</v>
@@ -4590,43 +4472,40 @@
         <v>11</v>
       </c>
       <c r="AB38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC38" t="s">
         <v>64</v>
       </c>
       <c r="AD38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE38" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK38">
+        <v>129</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ38">
         <v>4</v>
       </c>
-      <c r="AN38">
+      <c r="AM38">
         <v>2</v>
       </c>
-      <c r="AT38">
+      <c r="AS38">
         <v>2</v>
       </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
       <c r="AV38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW38">
         <v>0</v>
       </c>
-      <c r="AX38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>20465</v>
       </c>
@@ -4637,31 +4516,31 @@
         <v>2014</v>
       </c>
       <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
         <v>67</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
       </c>
       <c r="F39" t="s">
         <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>57</v>
       </c>
       <c r="J39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L39">
         <v>95</v>
       </c>
       <c r="M39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N39">
         <v>632</v>
@@ -4690,46 +4569,43 @@
       <c r="AA39">
         <v>3</v>
       </c>
-      <c r="AF39" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AY39">
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
         <v>57035</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>72</v>
       </c>
       <c r="AZ39" t="s">
         <v>73</v>
       </c>
-      <c r="BA39" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>21719</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>2009</v>
       </c>
       <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
         <v>118</v>
-      </c>
-      <c r="E40" t="s">
-        <v>119</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
         <v>58</v>
@@ -4738,13 +4614,13 @@
         <v>59</v>
       </c>
       <c r="K40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L40">
         <v>118</v>
       </c>
       <c r="M40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N40">
         <v>489</v>
@@ -4768,58 +4644,55 @@
         <v>3</v>
       </c>
       <c r="V40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W40">
         <v>4</v>
       </c>
       <c r="Y40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA40">
         <v>18</v>
       </c>
       <c r="AB40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC40" t="s">
         <v>64</v>
       </c>
       <c r="AD40" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE40" t="s">
         <v>123</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AH40" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ40">
+        <v>4</v>
+      </c>
+      <c r="AS40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>15281</v>
+      </c>
+      <c r="AY40" t="s">
         <v>124</v>
       </c>
-      <c r="AF40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI40" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK40">
-        <v>4</v>
-      </c>
-      <c r="AT40">
-        <v>4</v>
-      </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AY40">
-        <v>15281</v>
-      </c>
-      <c r="AZ40" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>21837</v>
       </c>
@@ -4830,31 +4703,31 @@
         <v>2014</v>
       </c>
       <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
         <v>67</v>
-      </c>
-      <c r="E41" t="s">
-        <v>68</v>
       </c>
       <c r="F41" t="s">
         <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
         <v>57</v>
       </c>
       <c r="J41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" t="s">
         <v>70</v>
-      </c>
-      <c r="K41" t="s">
-        <v>71</v>
       </c>
       <c r="L41">
         <v>51</v>
       </c>
       <c r="M41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N41">
         <v>1102</v>
@@ -4883,23 +4756,20 @@
       <c r="AA41">
         <v>3</v>
       </c>
-      <c r="AF41" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
         <v>90300</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>72</v>
       </c>
       <c r="AZ41" t="s">
         <v>73</v>
       </c>
-      <c r="BA41" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>22069</v>
       </c>
@@ -4937,7 +4807,7 @@
         <v>37</v>
       </c>
       <c r="M42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N42">
         <v>125</v>
@@ -4961,7 +4831,7 @@
         <v>12</v>
       </c>
       <c r="V42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W42">
         <v>2</v>
@@ -4975,55 +4845,52 @@
       <c r="AB42" t="s">
         <v>65</v>
       </c>
-      <c r="AF42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ42" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK42">
+      <c r="AI42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>22347</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>2010</v>
       </c>
       <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" t="s">
         <v>78</v>
-      </c>
-      <c r="E43" t="s">
-        <v>79</v>
       </c>
       <c r="F43" t="s">
         <v>55</v>
       </c>
       <c r="G43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" t="s">
         <v>80</v>
-      </c>
-      <c r="H43" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" t="s">
-        <v>81</v>
       </c>
       <c r="J43" t="s">
         <v>59</v>
       </c>
       <c r="K43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L43">
         <v>399</v>
       </c>
       <c r="M43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N43">
         <v>7037</v>
@@ -5050,13 +4917,13 @@
         <v>8</v>
       </c>
       <c r="V43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W43">
         <v>11</v>
       </c>
       <c r="X43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s">
         <v>63</v>
@@ -5065,78 +4932,75 @@
         <v>16</v>
       </c>
       <c r="AB43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD43" t="s">
         <v>84</v>
       </c>
-      <c r="AC43" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>85</v>
       </c>
-      <c r="AE43" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ43" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK43">
+      <c r="AI43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ43">
         <v>2</v>
       </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
       <c r="AM43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN43">
-        <v>3</v>
-      </c>
-      <c r="AO43">
         <v>8</v>
       </c>
+      <c r="AR43">
+        <v>1</v>
+      </c>
       <c r="AS43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU43">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AV43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW43">
         <v>0</v>
       </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>23265</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <v>2009</v>
       </c>
       <c r="D44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" t="s">
         <v>118</v>
-      </c>
-      <c r="E44" t="s">
-        <v>119</v>
       </c>
       <c r="F44" t="s">
         <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I44" t="s">
         <v>58</v>
@@ -5145,13 +5009,13 @@
         <v>59</v>
       </c>
       <c r="K44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L44">
         <v>155</v>
       </c>
       <c r="M44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N44">
         <v>491</v>
@@ -5175,81 +5039,78 @@
         <v>3</v>
       </c>
       <c r="V44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W44">
         <v>5</v>
       </c>
       <c r="Y44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA44">
         <v>18</v>
       </c>
       <c r="AB44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC44" t="s">
         <v>64</v>
       </c>
       <c r="AD44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE44" t="s">
         <v>123</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AH44" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ44">
+        <v>4</v>
+      </c>
+      <c r="AR44">
+        <v>5</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>14723</v>
+      </c>
+      <c r="AY44" t="s">
         <v>124</v>
       </c>
-      <c r="AF44" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI44" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK44">
-        <v>4</v>
-      </c>
-      <c r="AS44">
-        <v>5</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>14723</v>
-      </c>
-      <c r="AZ44" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>23319</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>2011</v>
       </c>
       <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
         <v>112</v>
       </c>
-      <c r="E45" t="s">
-        <v>113</v>
-      </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I45" t="s">
         <v>58</v>
@@ -5264,7 +5125,7 @@
         <v>113</v>
       </c>
       <c r="M45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N45">
         <v>1047</v>
@@ -5291,7 +5152,7 @@
         <v>8</v>
       </c>
       <c r="V45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W45">
         <v>4</v>
@@ -5306,52 +5167,49 @@
         <v>17</v>
       </c>
       <c r="AB45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC45" t="s">
         <v>64</v>
       </c>
       <c r="AD45" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE45" t="s">
         <v>157</v>
       </c>
-      <c r="AE45" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK45">
+      <c r="AJ45">
         <v>5</v>
       </c>
+      <c r="AL45">
+        <v>2</v>
+      </c>
       <c r="AM45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN45">
         <v>0</v>
       </c>
-      <c r="AO45">
-        <v>0</v>
+      <c r="AR45">
+        <v>1</v>
       </c>
       <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
         <v>1</v>
       </c>
-      <c r="AT45">
-        <v>0</v>
-      </c>
       <c r="AU45">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AV45">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AW45">
         <v>0</v>
       </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>23552</v>
       </c>
@@ -5362,34 +5220,34 @@
         <v>2010</v>
       </c>
       <c r="D46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" t="s">
         <v>159</v>
-      </c>
-      <c r="E46" t="s">
-        <v>160</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" t="s">
         <v>101</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>102</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>103</v>
-      </c>
-      <c r="K46" t="s">
-        <v>104</v>
       </c>
       <c r="L46">
         <v>243</v>
       </c>
       <c r="M46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N46">
         <v>257</v>
@@ -5416,42 +5274,39 @@
         <v>5</v>
       </c>
       <c r="AB46" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF46" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK46">
+        <v>91</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>23839</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C47">
         <v>2008</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" t="s">
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I47" t="s">
         <v>58</v>
@@ -5466,7 +5321,7 @@
         <v>1107</v>
       </c>
       <c r="M47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N47">
         <v>52743</v>
@@ -5490,7 +5345,7 @@
         <v>5</v>
       </c>
       <c r="V47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W47">
         <v>46</v>
@@ -5499,64 +5354,61 @@
         <v>64</v>
       </c>
       <c r="Y47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA47">
         <v>15</v>
       </c>
       <c r="AB47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC47" t="s">
         <v>64</v>
       </c>
       <c r="AD47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE47" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>94</v>
       </c>
       <c r="AI47" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK47">
+        <v>64</v>
+      </c>
+      <c r="AJ47">
         <v>6</v>
       </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
       <c r="AM47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN47">
         <v>0</v>
       </c>
-      <c r="AO47">
-        <v>0</v>
+      <c r="AR47">
+        <v>22</v>
       </c>
       <c r="AS47">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT47">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AU47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV47">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW47">
-        <v>0</v>
-      </c>
-      <c r="AX47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>24701</v>
       </c>
@@ -5567,31 +5419,31 @@
         <v>2014</v>
       </c>
       <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
         <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>68</v>
       </c>
       <c r="F48" t="s">
         <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H48" t="s">
         <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L48">
         <v>33</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N48">
         <v>667</v>
@@ -5620,46 +5472,43 @@
       <c r="AA48">
         <v>3</v>
       </c>
-      <c r="AF48" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AY48">
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
         <v>60115</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>72</v>
       </c>
       <c r="AZ48" t="s">
         <v>73</v>
       </c>
-      <c r="BA48" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>25081</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <v>2009</v>
       </c>
       <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
         <v>118</v>
-      </c>
-      <c r="E49" t="s">
-        <v>119</v>
       </c>
       <c r="F49" t="s">
         <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I49" t="s">
         <v>58</v>
@@ -5668,13 +5517,13 @@
         <v>59</v>
       </c>
       <c r="K49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L49">
         <v>135</v>
       </c>
       <c r="M49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N49">
         <v>600</v>
@@ -5698,58 +5547,55 @@
         <v>3</v>
       </c>
       <c r="V49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W49">
         <v>5</v>
       </c>
       <c r="Y49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA49">
         <v>18</v>
       </c>
       <c r="AB49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" t="s">
         <v>64</v>
       </c>
       <c r="AD49" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE49" t="s">
         <v>123</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AH49" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ49">
+        <v>4</v>
+      </c>
+      <c r="AS49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>60000</v>
+      </c>
+      <c r="AY49" t="s">
         <v>124</v>
       </c>
-      <c r="AF49" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ49" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK49">
-        <v>4</v>
-      </c>
-      <c r="AT49">
-        <v>5</v>
-      </c>
-      <c r="AW49">
-        <v>0</v>
-      </c>
-      <c r="AX49">
-        <v>0</v>
-      </c>
-      <c r="AY49">
-        <v>60000</v>
-      </c>
-      <c r="AZ49" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>25247</v>
       </c>
@@ -5825,17 +5671,14 @@
       <c r="AB50" t="s">
         <v>65</v>
       </c>
-      <c r="AF50" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK50">
+      <c r="AI50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>25415</v>
       </c>
@@ -5846,34 +5689,34 @@
         <v>2010</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" t="s">
         <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H51" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" t="s">
         <v>101</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>102</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>103</v>
-      </c>
-      <c r="K51" t="s">
-        <v>104</v>
       </c>
       <c r="L51">
         <v>679</v>
       </c>
       <c r="M51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N51">
         <v>326</v>
@@ -5900,19 +5743,16 @@
         <v>5</v>
       </c>
       <c r="AB51" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF51" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI51" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK51">
+        <v>91</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>25559</v>
       </c>
@@ -5923,16 +5763,16 @@
         <v>2012</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F52" t="s">
         <v>55</v>
       </c>
       <c r="G52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H52" t="s">
         <v>57</v>
@@ -5950,7 +5790,7 @@
         <v>45</v>
       </c>
       <c r="M52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N52">
         <v>125</v>
@@ -5965,7 +5805,7 @@
         <v>2.8</v>
       </c>
       <c r="V52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W52">
         <v>2</v>
@@ -5977,46 +5817,43 @@
         <v>11</v>
       </c>
       <c r="AB52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC52" t="s">
         <v>64</v>
       </c>
       <c r="AD52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK52">
+        <v>129</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ52">
         <v>4</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
       </c>
       <c r="AM52">
         <v>1</v>
       </c>
-      <c r="AN52">
-        <v>1</v>
-      </c>
-      <c r="AT52">
+      <c r="AS52">
         <v>2</v>
       </c>
+      <c r="AU52">
+        <v>3</v>
+      </c>
       <c r="AV52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW52">
         <v>0</v>
       </c>
-      <c r="AX52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>26034</v>
       </c>
@@ -6027,34 +5864,34 @@
         <v>2010</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
         <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H53" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" t="s">
         <v>101</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>102</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>103</v>
-      </c>
-      <c r="K53" t="s">
-        <v>104</v>
       </c>
       <c r="L53">
         <v>143</v>
       </c>
       <c r="M53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N53">
         <v>98</v>
@@ -6081,57 +5918,54 @@
         <v>5</v>
       </c>
       <c r="AB53" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK53">
+        <v>91</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>26195</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54">
         <v>2009</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F54" t="s">
         <v>55</v>
       </c>
       <c r="G54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H54" t="s">
         <v>57</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L54">
         <v>211</v>
       </c>
       <c r="M54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N54">
         <v>4393</v>
@@ -6152,7 +5986,7 @@
         <v>8</v>
       </c>
       <c r="X54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y54" t="s">
         <v>63</v>
@@ -6164,34 +5998,31 @@
         <v>65</v>
       </c>
       <c r="AC54" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK54">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ54">
         <v>2</v>
       </c>
-      <c r="AN54">
+      <c r="AM54">
         <v>8</v>
       </c>
-      <c r="AS54">
+      <c r="AR54">
         <v>8</v>
       </c>
+      <c r="AU54">
+        <v>8</v>
+      </c>
       <c r="AV54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW54">
         <v>0</v>
       </c>
-      <c r="AX54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>26585</v>
       </c>
@@ -6202,31 +6033,31 @@
         <v>2010</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
+        <v>172</v>
+      </c>
+      <c r="G55" t="s">
         <v>173</v>
       </c>
-      <c r="G55" t="s">
-        <v>174</v>
-      </c>
       <c r="H55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" t="s">
         <v>101</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>102</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>103</v>
-      </c>
-      <c r="K55" t="s">
-        <v>104</v>
       </c>
       <c r="L55">
         <v>243</v>
       </c>
       <c r="M55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N55">
         <v>289</v>
@@ -6253,19 +6084,16 @@
         <v>5</v>
       </c>
       <c r="AB55" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK55">
+        <v>91</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>26608</v>
       </c>
@@ -6276,25 +6104,25 @@
         <v>2014</v>
       </c>
       <c r="D56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" t="s">
         <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>68</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H56" t="s">
         <v>57</v>
       </c>
       <c r="J56" t="s">
+        <v>69</v>
+      </c>
+      <c r="K56" t="s">
         <v>70</v>
-      </c>
-      <c r="K56" t="s">
-        <v>71</v>
       </c>
       <c r="L56">
         <v>16</v>
@@ -6329,23 +6157,20 @@
       <c r="AA56">
         <v>3</v>
       </c>
-      <c r="AF56" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK56">
-        <v>0</v>
-      </c>
-      <c r="AY56">
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
         <v>70600</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>72</v>
       </c>
       <c r="AZ56" t="s">
         <v>73</v>
       </c>
-      <c r="BA56" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>26861</v>
       </c>
@@ -6356,34 +6181,34 @@
         <v>2010</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H57" t="s">
+        <v>100</v>
+      </c>
+      <c r="I57" t="s">
         <v>101</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>102</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>103</v>
-      </c>
-      <c r="K57" t="s">
-        <v>104</v>
       </c>
       <c r="L57">
         <v>138</v>
       </c>
       <c r="M57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N57">
         <v>87</v>
@@ -6410,19 +6235,16 @@
         <v>5</v>
       </c>
       <c r="AB57" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK57">
+        <v>91</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>27063</v>
       </c>
@@ -6498,17 +6320,14 @@
       <c r="AB58" t="s">
         <v>65</v>
       </c>
-      <c r="AF58" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK58">
+      <c r="AI58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>27281</v>
       </c>
@@ -6519,31 +6338,31 @@
         <v>2010</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" t="s">
         <v>176</v>
       </c>
-      <c r="G59" t="s">
-        <v>177</v>
-      </c>
       <c r="H59" t="s">
+        <v>100</v>
+      </c>
+      <c r="I59" t="s">
         <v>101</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>102</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>103</v>
-      </c>
-      <c r="K59" t="s">
-        <v>104</v>
       </c>
       <c r="L59">
         <v>144</v>
       </c>
       <c r="M59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N59">
         <v>117</v>
@@ -6570,19 +6389,16 @@
         <v>5</v>
       </c>
       <c r="AB59" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK59">
+        <v>91</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>27333</v>
       </c>
@@ -6658,17 +6474,14 @@
       <c r="AB60" t="s">
         <v>65</v>
       </c>
-      <c r="AF60" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK60">
+      <c r="AI60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>27500</v>
       </c>
@@ -6679,25 +6492,25 @@
         <v>2014</v>
       </c>
       <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" t="s">
         <v>67</v>
-      </c>
-      <c r="E61" t="s">
-        <v>68</v>
       </c>
       <c r="F61" t="s">
         <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H61" t="s">
         <v>57</v>
       </c>
       <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" t="s">
         <v>70</v>
-      </c>
-      <c r="K61" t="s">
-        <v>71</v>
       </c>
       <c r="L61">
         <v>25</v>
@@ -6732,23 +6545,20 @@
       <c r="AA61">
         <v>3</v>
       </c>
-      <c r="AF61" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK61">
-        <v>0</v>
-      </c>
-      <c r="AY61">
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
         <v>120600</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>72</v>
       </c>
       <c r="AZ61" t="s">
         <v>73</v>
       </c>
-      <c r="BA61" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>27970</v>
       </c>
@@ -6786,7 +6596,7 @@
         <v>3</v>
       </c>
       <c r="M62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N62">
         <v>9</v>
@@ -6824,17 +6634,14 @@
       <c r="AB62" t="s">
         <v>65</v>
       </c>
-      <c r="AF62" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK62">
+      <c r="AI62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>28393</v>
       </c>
@@ -6910,17 +6717,14 @@
       <c r="AB63" t="s">
         <v>65</v>
       </c>
-      <c r="AF63" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK63">
+      <c r="AI63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>29221</v>
       </c>
@@ -6996,37 +6800,34 @@
       <c r="AB64" t="s">
         <v>65</v>
       </c>
-      <c r="AF64" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK64">
+      <c r="AI64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>29310</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>2008</v>
       </c>
       <c r="D65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
         <v>139</v>
-      </c>
-      <c r="E65" t="s">
-        <v>140</v>
       </c>
       <c r="F65" t="s">
         <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H65" t="s">
         <v>57</v>
@@ -7038,13 +6839,13 @@
         <v>59</v>
       </c>
       <c r="K65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L65">
         <v>2003</v>
       </c>
       <c r="M65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N65">
         <v>47493</v>
@@ -7071,7 +6872,7 @@
         <v>10</v>
       </c>
       <c r="V65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="W65">
         <v>68</v>
@@ -7080,7 +6881,7 @@
         <v>64</v>
       </c>
       <c r="Y65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z65" t="s">
         <v>64</v>
@@ -7089,81 +6890,78 @@
         <v>17</v>
       </c>
       <c r="AB65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC65" t="s">
         <v>64</v>
       </c>
       <c r="AD65" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE65" t="s">
         <v>181</v>
       </c>
-      <c r="AE65" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>66</v>
+      <c r="AH65" t="s">
+        <v>94</v>
       </c>
       <c r="AI65" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK65">
+        <v>64</v>
+      </c>
+      <c r="AJ65">
         <v>9</v>
       </c>
+      <c r="AL65">
+        <v>11</v>
+      </c>
       <c r="AM65">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AN65">
-        <v>32</v>
-      </c>
-      <c r="AO65">
         <v>25</v>
       </c>
+      <c r="AR65">
+        <v>17</v>
+      </c>
       <c r="AS65">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="AT65">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="AU65">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AV65">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AW65">
-        <v>1</v>
-      </c>
-      <c r="AX65">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>29471</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66">
         <v>2009</v>
       </c>
       <c r="D66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" t="s">
         <v>118</v>
-      </c>
-      <c r="E66" t="s">
-        <v>119</v>
       </c>
       <c r="F66" t="s">
         <v>55</v>
       </c>
       <c r="G66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I66" t="s">
         <v>58</v>
@@ -7172,13 +6970,13 @@
         <v>59</v>
       </c>
       <c r="K66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L66">
         <v>142</v>
       </c>
       <c r="M66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N66">
         <v>669</v>
@@ -7202,58 +7000,55 @@
         <v>3</v>
       </c>
       <c r="V66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W66">
         <v>5</v>
       </c>
       <c r="Y66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA66">
         <v>18</v>
       </c>
       <c r="AB66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" t="s">
         <v>64</v>
       </c>
       <c r="AD66" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE66" t="s">
         <v>123</v>
       </c>
-      <c r="AE66" t="s">
+      <c r="AH66" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ66">
+        <v>4</v>
+      </c>
+      <c r="AR66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>7644</v>
+      </c>
+      <c r="AY66" t="s">
         <v>124</v>
       </c>
-      <c r="AF66" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK66">
-        <v>4</v>
-      </c>
-      <c r="AS66">
-        <v>5</v>
-      </c>
-      <c r="AW66">
-        <v>0</v>
-      </c>
-      <c r="AX66">
-        <v>0</v>
-      </c>
-      <c r="AY66">
-        <v>7644</v>
-      </c>
-      <c r="AZ66" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="67" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>30029</v>
       </c>
@@ -7291,7 +7086,7 @@
         <v>72</v>
       </c>
       <c r="M67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N67">
         <v>225</v>
@@ -7315,7 +7110,7 @@
         <v>12</v>
       </c>
       <c r="V67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W67">
         <v>2</v>
@@ -7329,55 +7124,52 @@
       <c r="AB67" t="s">
         <v>65</v>
       </c>
-      <c r="AF67" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK67">
+      <c r="AI67" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>30367</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68">
         <v>2009</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F68" t="s">
         <v>55</v>
       </c>
       <c r="G68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H68" t="s">
         <v>57</v>
       </c>
       <c r="I68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s">
         <v>59</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L68">
         <v>117</v>
       </c>
       <c r="M68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N68">
         <v>3549</v>
@@ -7404,13 +7196,13 @@
         <v>7</v>
       </c>
       <c r="V68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W68">
         <v>10</v>
       </c>
       <c r="X68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y68" t="s">
         <v>63</v>
@@ -7422,49 +7214,46 @@
         <v>17</v>
       </c>
       <c r="AB68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC68" t="s">
         <v>64</v>
       </c>
-      <c r="AF68" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK68">
+      <c r="AI68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ68">
         <v>2</v>
       </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
       <c r="AM68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN68">
+        <v>6</v>
+      </c>
+      <c r="AR68">
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <v>6</v>
+      </c>
+      <c r="AT68">
         <v>4</v>
       </c>
-      <c r="AO68">
-        <v>6</v>
-      </c>
-      <c r="AS68">
-        <v>0</v>
-      </c>
-      <c r="AT68">
-        <v>6</v>
-      </c>
       <c r="AU68">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AV68">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AW68">
         <v>0</v>
       </c>
-      <c r="AX68">
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>30466</v>
       </c>
@@ -7475,31 +7264,31 @@
         <v>2014</v>
       </c>
       <c r="D69" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" t="s">
         <v>67</v>
-      </c>
-      <c r="E69" t="s">
-        <v>68</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H69" t="s">
         <v>57</v>
       </c>
       <c r="J69" t="s">
+        <v>69</v>
+      </c>
+      <c r="K69" t="s">
         <v>70</v>
-      </c>
-      <c r="K69" t="s">
-        <v>71</v>
       </c>
       <c r="L69">
         <v>4</v>
       </c>
       <c r="M69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N69">
         <v>684</v>
@@ -7528,23 +7317,20 @@
       <c r="AA69">
         <v>3</v>
       </c>
-      <c r="AF69" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK69">
-        <v>0</v>
-      </c>
-      <c r="AY69">
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
         <v>68200</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>72</v>
       </c>
       <c r="AZ69" t="s">
         <v>73</v>
       </c>
-      <c r="BA69" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="70" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>30621</v>
       </c>
@@ -7620,40 +7406,37 @@
       <c r="AB70" t="s">
         <v>65</v>
       </c>
-      <c r="AF70" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK70">
+      <c r="AI70" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>30658</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <v>2009</v>
       </c>
       <c r="D71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" t="s">
         <v>118</v>
-      </c>
-      <c r="E71" t="s">
-        <v>119</v>
       </c>
       <c r="F71" t="s">
         <v>55</v>
       </c>
       <c r="G71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I71" t="s">
         <v>58</v>
@@ -7662,13 +7445,13 @@
         <v>59</v>
       </c>
       <c r="K71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L71">
         <v>160</v>
       </c>
       <c r="M71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N71">
         <v>784</v>
@@ -7692,58 +7475,55 @@
         <v>3</v>
       </c>
       <c r="V71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W71">
         <v>5</v>
       </c>
       <c r="Y71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA71">
         <v>18</v>
       </c>
       <c r="AB71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC71" t="s">
         <v>64</v>
       </c>
       <c r="AD71" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE71" t="s">
         <v>123</v>
       </c>
-      <c r="AE71" t="s">
+      <c r="AH71" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ71">
+        <v>4</v>
+      </c>
+      <c r="AR71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>15680</v>
+      </c>
+      <c r="AY71" t="s">
         <v>124</v>
       </c>
-      <c r="AF71" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK71">
-        <v>4</v>
-      </c>
-      <c r="AS71">
-        <v>5</v>
-      </c>
-      <c r="AW71">
-        <v>0</v>
-      </c>
-      <c r="AX71">
-        <v>0</v>
-      </c>
-      <c r="AY71">
-        <v>15680</v>
-      </c>
-      <c r="AZ71" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="72" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>31103</v>
       </c>
@@ -7819,55 +7599,52 @@
       <c r="AB72" t="s">
         <v>65</v>
       </c>
-      <c r="AF72" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK72">
+      <c r="AI72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>31166</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>2011</v>
       </c>
       <c r="D73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" t="s">
         <v>67</v>
       </c>
-      <c r="E73" t="s">
-        <v>68</v>
-      </c>
       <c r="F73" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" t="s">
         <v>185</v>
       </c>
-      <c r="G73" t="s">
-        <v>186</v>
-      </c>
       <c r="H73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I73" t="s">
         <v>58</v>
       </c>
       <c r="J73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L73">
         <v>492</v>
       </c>
       <c r="M73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N73">
         <v>1020</v>
@@ -7891,7 +7668,7 @@
         <v>3</v>
       </c>
       <c r="V73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W73">
         <v>2</v>
@@ -7906,93 +7683,90 @@
         <v>17</v>
       </c>
       <c r="AB73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC73" t="s">
         <v>64</v>
       </c>
       <c r="AD73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE73" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>94</v>
       </c>
       <c r="AI73" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK73">
+        <v>64</v>
+      </c>
+      <c r="AJ73">
         <v>1</v>
       </c>
-      <c r="AO73">
+      <c r="AN73">
         <v>2</v>
       </c>
+      <c r="AT73">
+        <v>2</v>
+      </c>
       <c r="AU73">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="AV73">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AW73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX73">
-        <v>1</v>
-      </c>
-      <c r="AY73">
         <v>765000</v>
       </c>
+      <c r="AY73" t="s">
+        <v>72</v>
+      </c>
       <c r="AZ73" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="74" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>31166</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>2011</v>
       </c>
       <c r="D74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" t="s">
         <v>67</v>
       </c>
-      <c r="E74" t="s">
-        <v>68</v>
-      </c>
       <c r="F74" t="s">
+        <v>184</v>
+      </c>
+      <c r="G74" t="s">
         <v>185</v>
       </c>
-      <c r="G74" t="s">
-        <v>186</v>
-      </c>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
         <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L74">
         <v>422</v>
       </c>
       <c r="M74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N74">
         <v>1020</v>
@@ -8016,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="V74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="W74">
         <v>2</v>
@@ -8031,55 +7805,52 @@
         <v>18</v>
       </c>
       <c r="AB74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC74" t="s">
         <v>64</v>
       </c>
       <c r="AD74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE74" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>66</v>
+        <v>165</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>94</v>
       </c>
       <c r="AI74" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK74">
+        <v>64</v>
+      </c>
+      <c r="AJ74">
         <v>1</v>
       </c>
-      <c r="AO74">
+      <c r="AN74">
         <v>2</v>
       </c>
+      <c r="AT74">
+        <v>2</v>
+      </c>
       <c r="AU74">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="AV74">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AW74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX74">
-        <v>1</v>
-      </c>
-      <c r="AY74">
         <v>765000</v>
       </c>
+      <c r="AY74" t="s">
+        <v>72</v>
+      </c>
       <c r="AZ74" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="75" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>31969</v>
       </c>
@@ -8155,40 +7926,37 @@
       <c r="AB75" t="s">
         <v>65</v>
       </c>
-      <c r="AF75" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK75">
+      <c r="AI75" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>32010</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C76">
         <v>2013</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F76" t="s">
         <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
         <v>58</v>
@@ -8203,7 +7971,7 @@
         <v>5393</v>
       </c>
       <c r="M76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N76">
         <v>400</v>
@@ -8239,7 +8007,7 @@
         <v>64</v>
       </c>
       <c r="Y76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z76" t="s">
         <v>64</v>
@@ -8251,58 +8019,55 @@
         <v>65</v>
       </c>
       <c r="AC76" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>94</v>
       </c>
       <c r="AI76" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK76">
+        <v>64</v>
+      </c>
+      <c r="AJ76">
         <v>7</v>
       </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
       <c r="AM76">
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>0</v>
-      </c>
-      <c r="AO76">
         <v>1</v>
       </c>
+      <c r="AR76">
+        <v>0</v>
+      </c>
       <c r="AS76">
         <v>0</v>
       </c>
       <c r="AT76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW76">
         <v>0</v>
       </c>
       <c r="AX76">
-        <v>0</v>
-      </c>
-      <c r="AY76">
         <v>277000</v>
       </c>
+      <c r="AY76" t="s">
+        <v>192</v>
+      </c>
       <c r="AZ76" t="s">
-        <v>193</v>
-      </c>
-      <c r="BA76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>32296</v>
       </c>
@@ -8313,34 +8078,34 @@
         <v>2010</v>
       </c>
       <c r="D77" t="s">
+        <v>193</v>
+      </c>
+      <c r="E77" t="s">
         <v>194</v>
-      </c>
-      <c r="E77" t="s">
-        <v>195</v>
       </c>
       <c r="F77" t="s">
         <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H77" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
         <v>101</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>102</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>103</v>
-      </c>
-      <c r="K77" t="s">
-        <v>104</v>
       </c>
       <c r="L77">
         <v>1371</v>
       </c>
       <c r="M77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N77">
         <v>2274</v>
@@ -8367,19 +8132,16 @@
         <v>5</v>
       </c>
       <c r="AB77" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK77">
+        <v>91</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>32692</v>
       </c>
@@ -8390,34 +8152,34 @@
         <v>2010</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F78" t="s">
         <v>55</v>
       </c>
       <c r="G78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H78" t="s">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s">
         <v>101</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>102</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>103</v>
-      </c>
-      <c r="K78" t="s">
-        <v>104</v>
       </c>
       <c r="L78">
         <v>995</v>
       </c>
       <c r="M78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N78">
         <v>614</v>
@@ -8444,19 +8206,16 @@
         <v>5</v>
       </c>
       <c r="AB78" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI78" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK78">
+        <v>91</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>32725</v>
       </c>
@@ -8532,18 +8291,15 @@
       <c r="AB79" t="s">
         <v>65</v>
       </c>
-      <c r="AF79" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ79" t="s">
-        <v>64</v>
-      </c>
-      <c r="AK79">
+      <c r="AI79" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ79">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BA1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AZ1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>